--- a/TimeSeries/forecasted_data/uffici_1h_forecast.xlsx
+++ b/TimeSeries/forecasted_data/uffici_1h_forecast.xlsx
@@ -440,7322 +440,7322 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07174012809991837</v>
+        <v>71185.39470604584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.03018547780811787</v>
+        <v>70389.21117286792</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5653311610221863</v>
+        <v>58979.16348288149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.5888935327529907</v>
+        <v>58527.71046275139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1593583822250366</v>
+        <v>72864.15293527783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2655273675918579</v>
+        <v>74898.34158299099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2572667598724365</v>
+        <v>74740.06904805057</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.997165858745575</v>
+        <v>50705.2477365596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5773696899414062</v>
+        <v>80873.21371545273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6321669816970825</v>
+        <v>81923.12512253356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5309239029884338</v>
+        <v>79983.31642362681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6276465654373169</v>
+        <v>81836.51433495956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5047897696495056</v>
+        <v>79482.58867180557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4428600966930389</v>
+        <v>78296.02145305167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4600166976451874</v>
+        <v>78624.7404548357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5348464846611023</v>
+        <v>80058.47275182097</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.6304451823234558</v>
+        <v>81890.13559430768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.6763678193092346</v>
+        <v>82770.00937766134</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5854305028915405</v>
+        <v>81027.65819976092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4938840568065643</v>
+        <v>79273.63614971373</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.5115768313407898</v>
+        <v>79612.62819131344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4166947901248932</v>
+        <v>77794.69642483407</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.3543883562088013</v>
+        <v>76600.91049842912</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.1656606197357178</v>
+        <v>72984.90326509521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.1509567052125931</v>
+        <v>72703.17752479034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.124752089381218</v>
+        <v>72201.09933446295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.1398609578609467</v>
+        <v>72490.58395782133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.1256993412971497</v>
+        <v>72219.24859987466</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1783882826566696</v>
+        <v>73228.76419431354</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2777115702629089</v>
+        <v>75131.7898604635</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.3098089694976807</v>
+        <v>75746.77327505394</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.1149348467588425</v>
+        <v>72013.00180837957</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2718130052089691</v>
+        <v>75018.77386027225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.5351075530052185</v>
+        <v>80063.47479888814</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6671565175056458</v>
+        <v>82593.52162566125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5383357405662537</v>
+        <v>80125.32659549953</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4341606497764587</v>
+        <v>78129.34079675691</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4481318295001984</v>
+        <v>78397.02740119226</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4717781841754913</v>
+        <v>78850.08952733096</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4910981357097626</v>
+        <v>79220.25814059968</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.5485169291496277</v>
+        <v>80320.39729496012</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.554186999797821</v>
+        <v>80429.03536194772</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4917001724243164</v>
+        <v>79231.79311238094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4857379198074341</v>
+        <v>79117.55686394968</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4950224459171295</v>
+        <v>79295.4475873703</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4707119464874268</v>
+        <v>78829.66050473711</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3427886664867401</v>
+        <v>76378.66143889364</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.128993347287178</v>
+        <v>72282.3614719367</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.1130499839782715</v>
+        <v>71976.88799927151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.1258918642997742</v>
+        <v>72222.93732408172</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.1033828109502792</v>
+        <v>71791.66579373683</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.02950632758438587</v>
+        <v>70376.19871286904</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.06785719096660614</v>
+        <v>71110.99796382326</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.2330839782953262</v>
+        <v>74276.72902851171</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.027926087379456</v>
+        <v>89505.83562152435</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.122417211532593</v>
+        <v>91316.27745063158</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.100836753845215</v>
+        <v>110062.7119088347</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.567721605300903</v>
+        <v>119008.1855925006</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.923275709152222</v>
+        <v>125820.5717069882</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.928056955337524</v>
+        <v>125912.1799735499</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.999567270278931</v>
+        <v>127282.3114704801</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.962196826934814</v>
+        <v>126566.2969833117</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2.900353670120239</v>
+        <v>125381.3874064112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.892622470855713</v>
+        <v>125233.2582920303</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.856700658798218</v>
+        <v>124544.9994559854</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.586334705352783</v>
+        <v>119364.8109920319</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.000871658325195</v>
+        <v>108147.3892581396</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.485036730766296</v>
+        <v>98264.036317459</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9945523738861084</v>
+        <v>88866.39813527883</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3865371346473694</v>
+        <v>77216.87833415468</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.1776863485574722</v>
+        <v>73215.31519721616</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.02637243457138538</v>
+        <v>70316.1535917052</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.02096912451088428</v>
+        <v>70212.62663468314</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.003220946993678808</v>
+        <v>69872.57307668446</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.005333231296390295</v>
+        <v>69913.04426263837</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.08761179447174072</v>
+        <v>71489.49447154987</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.07742555439472198</v>
+        <v>71294.3269859046</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3313719928264618</v>
+        <v>76159.91895139463</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9942836165428162</v>
+        <v>88861.24876764734</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7823497653007507</v>
+        <v>84800.61436699623</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6850487589836121</v>
+        <v>82936.33543678388</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.44589638710022</v>
+        <v>97514.11069202295</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.64403235912323</v>
+        <v>101310.378911035</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.826872706413269</v>
+        <v>104813.5842729048</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.775108456611633</v>
+        <v>103821.7856893537</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.689246654510498</v>
+        <v>102176.6809301544</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.603943824768066</v>
+        <v>100542.2860333742</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.622432231903076</v>
+        <v>100896.52232732</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.530137181282043</v>
+        <v>99128.1570786107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.44927179813385</v>
+        <v>97578.78327773386</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.355982184410095</v>
+        <v>95791.3622853344</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.090964913368225</v>
+        <v>90713.65411718452</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7175844311714172</v>
+        <v>83559.71612353981</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-0.01980780623853207</v>
+        <v>69431.34414118979</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-0.2150626331567764</v>
+        <v>65690.27841511181</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.1047601401805878</v>
+        <v>67803.66471386365</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.09968303143978119</v>
+        <v>67900.94168159645</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-0.2136090397834778</v>
+        <v>65718.12913939009</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-0.8066394925117493</v>
+        <v>54355.71656174257</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.8457072973251343</v>
+        <v>53607.18077449847</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.1295348554849625</v>
+        <v>67328.98329491289</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.0930156409740448</v>
+        <v>71593.03170675083</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8362292647361755</v>
+        <v>85832.94095199024</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-0.1518611460924149</v>
+        <v>66901.21348301999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6501740217208862</v>
+        <v>82268.13846394187</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.694888710975647</v>
+        <v>102284.7822477991</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2.434990644454956</v>
+        <v>116465.0717742794</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2.875166654586792</v>
+        <v>124898.806350457</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.367728471755981</v>
+        <v>115176.3343181189</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2.136123657226562</v>
+        <v>110738.8059491355</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.958516836166382</v>
+        <v>107335.8745006642</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.214287042617798</v>
+        <v>112236.409704887</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.980375647544861</v>
+        <v>107754.6874506512</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.387609124183655</v>
+        <v>96397.33173702503</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7619251012802124</v>
+        <v>84409.27955730219</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6382672786712646</v>
+        <v>82040.00628900308</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8154851198196411</v>
+        <v>85435.48491574824</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.350173681974411</v>
+        <v>76520.1577018211</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.03861697018146515</v>
+        <v>69070.96217433296</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.5224927663803101</v>
+        <v>59799.94344762996</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.3892470300197601</v>
+        <v>62352.92032053051</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.100814662873745</v>
+        <v>71742.46029700083</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.03111902065575123</v>
+        <v>70407.09777370759</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.009184287860989571</v>
+        <v>69986.83017590054</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.663306713104248</v>
+        <v>57101.96031370584</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.5087072849273682</v>
+        <v>60064.07208913432</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1.29515528678894</v>
+        <v>94625.92414735976</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.307799220085144</v>
+        <v>94868.18082415398</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.063645124435425</v>
+        <v>109350.1234813014</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.616197466850281</v>
+        <v>100777.064764005</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1.715712308883667</v>
+        <v>102683.760596539</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.310575485229492</v>
+        <v>114081.288001406</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.477017402648926</v>
+        <v>117270.3008543444</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2.397161483764648</v>
+        <v>115740.2683021273</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1.866365551948547</v>
+        <v>105570.2638039015</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.539474844932556</v>
+        <v>99307.06591275289</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.526122808456421</v>
+        <v>99051.24203980388</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1.647441864013672</v>
+        <v>101375.7047321163</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.397736668586731</v>
+        <v>96591.37461859509</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.9158032536506653</v>
+        <v>87357.57175018277</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.3812136948108673</v>
+        <v>77114.88168376962</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.03779818117618561</v>
+        <v>70535.06991604256</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.2038577646017075</v>
+        <v>73716.7572824713</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.07894867658615112</v>
+        <v>71323.50987637097</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.1273449659347534</v>
+        <v>72250.77862669599</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.4666570723056793</v>
+        <v>60869.75055402145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-0.6328772306442261</v>
+        <v>57684.98658604044</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-0.1291379481554031</v>
+        <v>67336.58800528281</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-0.04856522381305695</v>
+        <v>68880.35448855697</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.3226136267185211</v>
+        <v>75992.10940845012</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.1861566305160522</v>
+        <v>66244.11494486076</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-0.5888618230819702</v>
+        <v>58528.31801732667</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.06968629360199</v>
+        <v>90305.95758869336</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1.695555090904236</v>
+        <v>102297.5500300391</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.412072658538818</v>
+        <v>96866.05095569589</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1.363764762878418</v>
+        <v>95940.47582085045</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1.2148677110672</v>
+        <v>93087.62108718364</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.837485671043396</v>
+        <v>105016.9277643642</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>1.623835206031799</v>
+        <v>100923.4031912166</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.9906682968139648</v>
+        <v>88791.97955192608</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8082705736160278</v>
+        <v>85297.25482967286</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.61527419090271</v>
+        <v>81599.4607007311</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8974436521530151</v>
+        <v>87005.803361194</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.6499029397964478</v>
+        <v>82262.94455753514</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.4889395534992218</v>
+        <v>79178.89989070526</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.3213260173797607</v>
+        <v>63654.28109341632</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.5553723573684692</v>
+        <v>59169.97330617595</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.2113935947418213</v>
+        <v>65760.57687624845</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.1676283925771713</v>
+        <v>66599.11439359034</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.1638522744178772</v>
+        <v>66671.46449343843</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.5727664828300476</v>
+        <v>58836.70335517669</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-0.9009954929351807</v>
+        <v>52547.86369169956</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.484375536441803</v>
+        <v>60530.26630185415</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-0.03595398366451263</v>
+        <v>69121.98476744791</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.07658714056015015</v>
+        <v>71278.26304879077</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.3327184021472931</v>
+        <v>63436.00397901774</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.8090620636940002</v>
+        <v>54309.30030580694</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.7151167988777161</v>
+        <v>56109.28351686825</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.1011889949440956</v>
+        <v>71749.63246734183</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.2138760685920715</v>
+        <v>73908.70712710932</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.2104928493499756</v>
+        <v>73843.88493679435</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.4684446156024933</v>
+        <v>60835.50137786975</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.6583108305931091</v>
+        <v>57197.68099384944</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.4696037471294403</v>
+        <v>60813.2925172955</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-0.240942656993866</v>
+        <v>65194.41937953695</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.06915773451328278</v>
+        <v>68485.80375088549</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.2179511189460754</v>
+        <v>65634.9352752921</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.4710040092468262</v>
+        <v>60786.46361530338</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.3295167982578278</v>
+        <v>63497.34643476339</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.01047495193779469</v>
+        <v>70011.55918884135</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.005466477479785681</v>
+        <v>69915.59724807642</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.355506956577301</v>
+        <v>62999.37723195831</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.7216634750366211</v>
+        <v>55983.84976352977</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.5707603096961975</v>
+        <v>58875.14146024217</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.1693487018346786</v>
+        <v>66566.15341586142</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.1330986618995667</v>
+        <v>67260.70106987149</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.2218283414840698</v>
+        <v>65560.64802422536</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-0.9790360331535339</v>
+        <v>51052.61363891732</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.6458572745323181</v>
+        <v>57436.2900591522</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.07778143882751465</v>
+        <v>68320.57431635115</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.06680358201265335</v>
+        <v>68530.90911075326</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.205399289727211</v>
+        <v>65875.4272458693</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.7265961766242981</v>
+        <v>55889.33962445722</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.7578237056732178</v>
+        <v>55291.02284797141</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.1849348545074463</v>
+        <v>66267.52406832717</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-0.1535299718379974</v>
+        <v>66869.238924961</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-0.3141970336437225</v>
+        <v>63790.87180995633</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-0.6330257654190063</v>
+        <v>57682.14067250359</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-0.6159821152687073</v>
+        <v>58008.69554661815</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-0.1766267716884613</v>
+        <v>66426.70622210069</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-0.06482063233852386</v>
+        <v>68568.90225632364</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-0.1460476368665695</v>
+        <v>67012.59982084484</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.3319986760616302</v>
+        <v>76171.92614839559</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.1662794202566147</v>
+        <v>72996.75942996726</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-0.002669839654117823</v>
+        <v>69759.70611008734</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-0.21125228703022</v>
+        <v>65763.28431987505</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-0.2341467440128326</v>
+        <v>65324.62848899676</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-0.2822495400905609</v>
+        <v>64402.98304455272</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-0.3207578361034393</v>
+        <v>63665.16739790668</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-0.3111598193645477</v>
+        <v>63849.0645748775</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-0.3799178898334503</v>
+        <v>62531.66584583009</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-0.1872141659259796</v>
+        <v>66223.85265716916</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.2391386926174164</v>
+        <v>74392.73683527927</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.3457370698451996</v>
+        <v>76435.15259419606</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>1.323085188865662</v>
+        <v>95161.0586740759</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.89219605922699</v>
+        <v>106065.1741064624</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.875838994979858</v>
+        <v>105751.7741593265</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.158356666564941</v>
+        <v>111164.7884999188</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.094738960266113</v>
+        <v>109945.8787072001</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.16969108581543</v>
+        <v>111381.9549999856</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>1.905490756034851</v>
+        <v>106319.8993562884</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>1.816481709480286</v>
+        <v>104614.4936634725</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>1.5662522315979</v>
+        <v>99820.11834310126</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>1.249267220497131</v>
+        <v>93746.71273553556</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.5448970198631287</v>
+        <v>80251.04014370822</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.2044369578361511</v>
+        <v>73727.85457513419</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.02922454662621021</v>
+        <v>70370.79981389415</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-0.3610783517360687</v>
+        <v>62892.62977887932</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-0.615813136100769</v>
+        <v>58011.93317297327</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-0.7546127438545227</v>
+        <v>55352.54460083797</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-0.807946503162384</v>
+        <v>54330.67434985013</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-0.2521069943904877</v>
+        <v>64980.51163319294</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-0.2128829210996628</v>
+        <v>65732.0415110531</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-0.1577487140893936</v>
+        <v>66788.4081854963</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-0.7112857699394226</v>
+        <v>56182.68570252927</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-0.8083966374397278</v>
+        <v>54322.04981572884</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.3567145764827728</v>
+        <v>76645.48067923139</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8359128832817078</v>
+        <v>85826.87911047596</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>1.385465741157532</v>
+        <v>96356.26470219958</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>1.555291771888733</v>
+        <v>99610.11687575115</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.34695827960968</v>
+        <v>95618.46504383185</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.597814559936523</v>
+        <v>100424.8498452438</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.223934888839722</v>
+        <v>112421.2616104761</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.136117935180664</v>
+        <v>110738.6963152271</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.03416109085083</v>
+        <v>108785.2119282772</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.588342666625977</v>
+        <v>100243.3691823355</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1.149597406387329</v>
+        <v>91837.04765131784</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.855901837348938</v>
+        <v>86209.86575485926</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.5397920608520508</v>
+        <v>80153.22956718724</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7834626436233521</v>
+        <v>84821.93702014489</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.7953303456306458</v>
+        <v>85049.32117206337</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.2831664979457855</v>
+        <v>75236.3058067002</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-0.2640558183193207</v>
+        <v>64751.57319222004</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>-0.5080349445343018</v>
+        <v>60076.9540733621</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-0.0332358330488205</v>
+        <v>69174.06429996027</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.0761931836605072</v>
+        <v>71270.71486840483</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.04655991494655609</v>
+        <v>70702.94398311019</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>-0.3138295710086823</v>
+        <v>63797.91236250636</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-0.7342769503593445</v>
+        <v>55742.17665889339</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-0.1804180890321732</v>
+        <v>66354.06490718362</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.9627454280853271</v>
+        <v>88256.97978355558</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.9464123249053955</v>
+        <v>87944.03892841082</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1.144541382789612</v>
+        <v>91740.17467311698</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1.416962265968323</v>
+        <v>96959.73541439639</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>1.587732434272766</v>
+        <v>100231.677182821</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2.367838621139526</v>
+        <v>115178.4447708541</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.392481088638306</v>
+        <v>115650.5923331997</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.004892826080322</v>
+        <v>108224.4344872126</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>1.471939325332642</v>
+        <v>98013.0911534303</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1.314437508583069</v>
+        <v>94995.3698620455</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>1.310454845428467</v>
+        <v>94919.06237781396</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1.480526804924011</v>
+        <v>98177.62652538359</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1.418017148971558</v>
+        <v>96979.9468822034</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7376618385314941</v>
+        <v>83944.39752542258</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.2088233828544617</v>
+        <v>73811.89810202166</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-0.1075656935572624</v>
+        <v>67749.91055195217</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.2038529962301254</v>
+        <v>73716.66592088103</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>-0.03374888002872467</v>
+        <v>69164.23436385738</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-0.08430144190788269</v>
+        <v>68195.65161690822</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-0.6936599612236023</v>
+        <v>56520.39468479567</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>-0.7690650820732117</v>
+        <v>55075.63904093463</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>-0.168897807598114</v>
+        <v>66574.79251073617</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-0.147178590297699</v>
+        <v>66990.93085016808</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.03613145649433136</v>
+        <v>70503.13561418428</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-0.2445202022790909</v>
+        <v>65125.87391891359</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-0.0155703853815794</v>
+        <v>69512.53276113389</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.8970853686332703</v>
+        <v>86998.93867970526</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>1.021722555160522</v>
+        <v>89386.97647662552</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.134805679321289</v>
+        <v>110713.5536055854</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2.286446571350098</v>
+        <v>113618.9800823322</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.145920038223267</v>
+        <v>110926.5037682614</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>1.728808999061584</v>
+        <v>102934.6920563291</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>1.332153081893921</v>
+        <v>95334.79872624869</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1.105652093887329</v>
+        <v>90995.05923540854</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.048491597175598</v>
+        <v>89899.86902419094</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>1.61134660243988</v>
+        <v>100684.1226182254</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>1.469237804412842</v>
+        <v>97961.33024446401</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.7448113560676575</v>
+        <v>84081.3816678107</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.2120514512062073</v>
+        <v>73873.74761459329</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.069392129778862</v>
+        <v>71140.40725973052</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.189394399523735</v>
+        <v>73439.64044889047</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.1244770586490631</v>
+        <v>72195.82976923928</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-0.05806076526641846</v>
+        <v>68698.420729262</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>-0.5184589624404907</v>
+        <v>59877.23078491713</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-0.4219262301921844</v>
+        <v>61726.78964990751</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.04356393218040466</v>
+        <v>70645.54121043989</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>-0.001982344780117273</v>
+        <v>69772.87845286919</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.2225959300994873</v>
+        <v>74075.77892521242</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-0.270214706659317</v>
+        <v>64633.56942021009</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>-0.04130902886390686</v>
+        <v>69019.38256102234</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>1.730972528457642</v>
+        <v>102976.1450938734</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1.988399624824524</v>
+        <v>107908.4261666746</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1.933303833007812</v>
+        <v>106852.795524043</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1.847975969314575</v>
+        <v>105217.9209789139</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2.156778335571289</v>
+        <v>111134.5478135401</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2.614932775497437</v>
+        <v>119912.7475615844</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2.685871124267578</v>
+        <v>121271.9202357619</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2.262135744094849</v>
+        <v>113153.1867185896</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>1.73263943195343</v>
+        <v>103008.0828217914</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>1.479242205619812</v>
+        <v>98153.0137129654</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>1.242427229881287</v>
+        <v>93615.65910237572</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>1.266358852386475</v>
+        <v>94074.18693565219</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.9215852618217468</v>
+        <v>87468.35453050191</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.1883308589458466</v>
+        <v>73419.26310269612</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-0.2943749129772186</v>
+        <v>64170.66194070014</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-0.2086826711893082</v>
+        <v>65812.51793885055</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.1216150373220444</v>
+        <v>72140.99368624555</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.1113822758197784</v>
+        <v>71944.93485408524</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-0.03306029736995697</v>
+        <v>69177.427548502</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-0.6444359421730042</v>
+        <v>57463.52266517132</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-0.6490314602851868</v>
+        <v>57375.47293255061</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.2487575560808182</v>
+        <v>74577.03343370254</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.2734976708889008</v>
+        <v>75051.05191011391</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.4581671059131622</v>
+        <v>78589.30243599066</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-0.2157694548368454</v>
+        <v>65676.7357723844</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>-0.1230268180370331</v>
+        <v>67453.67673386523</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.5263803005218506</v>
+        <v>79896.26139032013</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.8016191124916077</v>
+        <v>85169.81340538824</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.8960338234901428</v>
+        <v>86978.79116501141</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.4410903453826904</v>
+        <v>78262.11316983367</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.3226349353790283</v>
+        <v>75992.51768055663</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.5164414644241333</v>
+        <v>79705.83414368492</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.7854697108268738</v>
+        <v>84860.39225550854</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.8941345810890198</v>
+        <v>86942.4018436077</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.6503188610076904</v>
+        <v>82270.91357224627</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.1807021498680115</v>
+        <v>73273.09769149602</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.09837199002504349</v>
+        <v>71695.65889486123</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.2396256029605865</v>
+        <v>74402.0659956655</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.212380513548851</v>
+        <v>73880.05242083668</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-0.04434183239936829</v>
+        <v>68961.27430557218</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>-0.5840900540351868</v>
+        <v>58619.74470272767</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-0.5111610889434814</v>
+        <v>60017.05741478244</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>-0.03242357075214386</v>
+        <v>69189.62717585247</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>-0.09093882143497467</v>
+        <v>68068.47999481986</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>-0.03776869177818298</v>
+        <v>69087.21511573666</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-0.7170202732086182</v>
+        <v>56072.81311205317</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>-0.703249990940094</v>
+        <v>56336.65053848855</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.1623293459415436</v>
+        <v>72921.07634510421</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.2882887721061707</v>
+        <v>75334.44813999583</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.1980156749486923</v>
+        <v>73604.82334611478</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-0.3847668468952179</v>
+        <v>62438.76024468663</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-0.2919000387191772</v>
+        <v>64218.08031907902</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.3100540935993195</v>
+        <v>75751.46983180365</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.415630966424942</v>
+        <v>77774.31365404528</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.2044731676578522</v>
+        <v>73728.54835221029</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-0.07163435965776443</v>
+        <v>68438.3518256727</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-0.05339799076318741</v>
+        <v>68787.75908856296</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.2445190846920013</v>
+        <v>74495.8246856581</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.3057767748832703</v>
+        <v>75669.5167723035</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.2666528224945068</v>
+        <v>74919.90520233399</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-0.1306188851594925</v>
+        <v>67308.21337938536</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-0.3388446867465973</v>
+        <v>63318.62489188126</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.0654217004776001</v>
+        <v>71064.33417507901</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>-0.00221961596980691</v>
+        <v>69768.33235723844</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.003865854348987341</v>
+        <v>69884.92944626324</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-0.6212522387504578</v>
+        <v>57907.72043301427</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-0.7545334696769714</v>
+        <v>55354.06348727617</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>-0.1840595453977585</v>
+        <v>66284.29491574569</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-0.08541826903820038</v>
+        <v>68174.25330494263</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.05633792281150818</v>
+        <v>70890.28977460865</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>-0.340557724237442</v>
+        <v>63285.8032405775</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-0.2903133630752563</v>
+        <v>64248.48088824068</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1.350136160850525</v>
+        <v>95679.35297566591</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2.071714162826538</v>
+        <v>109504.7255643528</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2.501674890518188</v>
+        <v>117742.7362056994</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.633872509002686</v>
+        <v>120275.6312300491</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2.6148521900177</v>
+        <v>119911.2035507088</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2.286578416824341</v>
+        <v>113621.5062303031</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.749710559844971</v>
+        <v>122495.0783424281</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2.748711109161377</v>
+        <v>122475.9289531079</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.471464157104492</v>
+        <v>117163.9011463183</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.180660009384155</v>
+        <v>111592.1186341585</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1.682731032371521</v>
+        <v>102051.8421691725</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1.289766311645508</v>
+        <v>94522.67184611846</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.8230264186859131</v>
+        <v>85579.97555479674</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.5568878650665283</v>
+        <v>80480.78370869535</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.3509756028652191</v>
+        <v>76535.52243726442</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-0.1142590343952179</v>
+        <v>67621.66671595052</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.1996212601661682</v>
+        <v>73635.58622108283</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.142693042755127</v>
+        <v>72544.84646133115</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-0.5201831459999084</v>
+        <v>59844.19557589611</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>-0.6327022910118103</v>
+        <v>57688.33841438339</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>-0.6350907683372498</v>
+        <v>57642.57539381818</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>-0.4170598685741425</v>
+        <v>61820.02872085545</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.485951155424118</v>
+        <v>79121.64244006446</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1.323621273040771</v>
+        <v>95171.33000086178</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2.23468017578125</v>
+        <v>112627.1403860654</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2.354081869125366</v>
+        <v>114914.8665829311</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.296774864196777</v>
+        <v>113816.8692868525</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2.546826839447021</v>
+        <v>118607.843672026</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2.868809223175049</v>
+        <v>124776.9985102322</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>3.128496646881104</v>
+        <v>129752.5872608601</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>3.048152923583984</v>
+        <v>128213.2084179586</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2.596863269805908</v>
+        <v>119566.5373833435</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2.25927472114563</v>
+        <v>113098.3697644288</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>1.890892744064331</v>
+        <v>106040.2026998024</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>1.426974654197693</v>
+        <v>97151.57191356148</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>1.369924187660217</v>
+        <v>96058.4898710393</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.9422547221183777</v>
+        <v>87864.37961583634</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.3481523990631104</v>
+        <v>76481.43009471646</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>-0.2697883546352386</v>
+        <v>64641.73828839992</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-0.4389961063861847</v>
+        <v>61399.73228704647</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.04113157093524933</v>
+        <v>70598.93737773923</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.003030107822269201</v>
+        <v>69868.91661453896</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-0.07281030714511871</v>
+        <v>68415.82077274025</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-0.5605068802833557</v>
+        <v>59071.59628779531</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-0.8124436736106873</v>
+        <v>54244.50895002868</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.12945157289505</v>
+        <v>72291.14103525649</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1.406496167182922</v>
+        <v>96759.20585991729</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1.721150994300842</v>
+        <v>102787.9653423588</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1.592201352119446</v>
+        <v>100317.3012652201</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1.385668158531189</v>
+        <v>96360.14300170646</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1.881927728652954</v>
+        <v>105868.4337739396</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.559874296188354</v>
+        <v>118857.8318233966</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>2.696488857269287</v>
+        <v>121475.3550888115</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.531799554824829</v>
+        <v>118319.9221883761</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>2.280104637145996</v>
+        <v>113497.4691672758</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>2.220417261123657</v>
+        <v>112353.8641653355</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1.912904858589172</v>
+        <v>106461.9529249165</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1.963666796684265</v>
+        <v>107434.5473021933</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1.693130493164062</v>
+        <v>102251.0949454276</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1.309531450271606</v>
+        <v>94901.37020585858</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.5894154906272888</v>
+        <v>81104.01022276771</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.02230215258896351</v>
+        <v>70238.16733825249</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.3201456367969513</v>
+        <v>75944.82293336719</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.2745662927627563</v>
+        <v>75071.52661350289</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.3016527891159058</v>
+        <v>75590.50155894039</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-0.1232750564813614</v>
+        <v>67448.92050657688</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-0.4626634418964386</v>
+        <v>60946.2681699106</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-0.07990477979183197</v>
+        <v>68279.8912857098</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.1594482213258743</v>
+        <v>72865.87424473948</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.3347750604152679</v>
+        <v>76225.12143432911</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.7296913266181946</v>
+        <v>83791.6832012301</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.5307731032371521</v>
+        <v>79980.42711333459</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1.709299683570862</v>
+        <v>102560.8952459069</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.442223072052002</v>
+        <v>116603.6444663183</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>2.840344667434692</v>
+        <v>124231.6200652073</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.821412086486816</v>
+        <v>123868.873439128</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.548958778381348</v>
+        <v>118648.6914390348</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>2.652071475982666</v>
+        <v>120624.3218754657</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>2.951119899749756</v>
+        <v>126354.0640091193</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>2.833645343780518</v>
+        <v>124103.2615989604</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>2.196627855300903</v>
+        <v>111898.0611914887</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1.519030213356018</v>
+        <v>98915.3485263996</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1.007583737373352</v>
+        <v>89116.0779412823</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.9720698595046997</v>
+        <v>88435.63508928477</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.711799681186676</v>
+        <v>83448.88081030626</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.3391161859035492</v>
+        <v>76308.29702610902</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.1514644920825958</v>
+        <v>72712.90667763897</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-0.05617572367191315</v>
+        <v>68734.53796442971</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-0.4210441708564758</v>
+        <v>61743.68983107726</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-0.1600236743688583</v>
+        <v>66744.8201417894</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>-0.1399974375963211</v>
+        <v>67128.52111960662</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>-0.1444831490516663</v>
+        <v>67042.57527310679</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-0.8550577759742737</v>
+        <v>53428.02640608243</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>-0.7486506104469299</v>
+        <v>55466.77856522948</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.08100969344377518</v>
+        <v>71362.99878247701</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.1673513799905777</v>
+        <v>73017.29808646943</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.107625246047974</v>
+        <v>110192.7788368196</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>2.554143190383911</v>
+        <v>118748.0243280536</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>2.748142719268799</v>
+        <v>122465.038651548</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.699790954589844</v>
+        <v>121538.6229900721</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>2.677603721618652</v>
+        <v>121113.5175105554</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>3.054285049438477</v>
+        <v>128330.6994230432</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>3.18643856048584</v>
+        <v>130862.7493526829</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>2.884432315826416</v>
+        <v>125076.3356245861</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>2.271615505218506</v>
+        <v>113334.8181281218</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1.614413022994995</v>
+        <v>100742.8749728869</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1.518448114395142</v>
+        <v>98904.19556026765</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1.081616163253784</v>
+        <v>90534.53286734495</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.7736316919326782</v>
+        <v>84633.5768294895</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.3625458180904388</v>
+        <v>76757.20676797004</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.214927464723587</v>
+        <v>73928.85178675345</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.2064270973205566</v>
+        <v>73765.98547685238</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.1577304601669312</v>
+        <v>72832.96208836036</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-0.1458108574151993</v>
+        <v>67017.13649481158</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-0.5339640378952026</v>
+        <v>59580.15486992239</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>-0.6308209896087646</v>
+        <v>57724.38398780373</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-0.6001840233802795</v>
+        <v>58311.38563133485</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.3059634566307068</v>
+        <v>75673.09357856248</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.479690283536911</v>
+        <v>79001.68467204267</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.6391013264656067</v>
+        <v>82055.98657316083</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.479685515165329</v>
+        <v>79001.5933104524</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.254408985376358</v>
+        <v>74685.31433397319</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.8675737977027893</v>
+        <v>86433.49951349724</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1.269083142280579</v>
+        <v>94126.38409621202</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1.640778303146362</v>
+        <v>101248.0314777964</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1.063135385513306</v>
+        <v>90180.44275194351</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.7964691519737244</v>
+        <v>85071.14060385911</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.8744454383850098</v>
+        <v>86565.15955921248</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.9849718809127808</v>
+        <v>88682.83671215225</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.8657594323158264</v>
+        <v>86398.7364284003</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.4954536855220795</v>
+        <v>79303.71010119017</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.1554217934608459</v>
+        <v>72788.72823241226</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.3464265763759613</v>
+        <v>76448.36348014881</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.4233600199222565</v>
+        <v>77922.40165571058</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.3517881035804749</v>
+        <v>76551.08988123613</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>-0.08515919744968414</v>
+        <v>68179.21709434387</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>-0.431980699300766</v>
+        <v>61534.14688470829</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>-0.1610106825828552</v>
+        <v>66725.90914911884</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.05431458353996277</v>
+        <v>70851.52276781821</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.0312637984752655</v>
+        <v>70409.87170430398</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-0.08152152597904205</v>
+        <v>68248.91456751952</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>-0.5882151126861572</v>
+        <v>58540.70893300676</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>-0.3473075926303864</v>
+        <v>63156.47634147372</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.3228703439235687</v>
+        <v>75997.02808806617</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.2990952432155609</v>
+        <v>75541.49919899025</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>-0.0298145767301321</v>
+        <v>69239.61527739823</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>-0.4333874583244324</v>
+        <v>61507.19350254944</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>-0.2630316317081451</v>
+        <v>64771.19651978971</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.3379267752170563</v>
+        <v>76285.50801943657</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.5301714539527893</v>
+        <v>79968.89956468254</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.332282543182373</v>
+        <v>76177.36501806624</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.05078057199716568</v>
+        <v>70783.8114099635</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.2287872433662415</v>
+        <v>74194.40395603619</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.4333379864692688</v>
+        <v>78113.57863839593</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.5045520663261414</v>
+        <v>79478.03429653072</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.4323481619358063</v>
+        <v>78094.61368528612</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.0463215596973896</v>
+        <v>70698.37711699292</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.1391534358263016</v>
+        <v>72477.02789636036</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.4265286922454834</v>
+        <v>77983.11314547344</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.2328680902719498</v>
+        <v>74272.59263251233</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.2191739529371262</v>
+        <v>74010.21413647154</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>-0.4051145017147064</v>
+        <v>62048.90092467541</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-0.4591130912303925</v>
+        <v>61014.29258396447</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.1247053891420364</v>
+        <v>72200.20456188827</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.09019800275564194</v>
+        <v>71539.04600030903</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.2016340345144272</v>
+        <v>73674.15080484984</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.1577383726835251</v>
+        <v>72833.11369149921</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.3294942080974579</v>
+        <v>76123.94075714712</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>1.933845400810242</v>
+        <v>106863.1719166577</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>2.630958795547485</v>
+        <v>120219.8047303159</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>2.697900772094727</v>
+        <v>121502.4072556898</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>2.802671670913696</v>
+        <v>123509.8086851365</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>2.934556007385254</v>
+        <v>126036.7012530056</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>3.205303907394409</v>
+        <v>131224.2077803395</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>3.211883068084717</v>
+        <v>131350.2639345116</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>3.030330896377563</v>
+        <v>127871.7399062527</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>2.650776863098145</v>
+        <v>120599.5172037079</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>1.995859146118164</v>
+        <v>108051.34995445</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>1.780986309051514</v>
+        <v>103934.4048376372</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>1.351359486579895</v>
+        <v>95702.79179164914</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>1.135186910629272</v>
+        <v>91560.94378936911</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.2017960250377655</v>
+        <v>73677.25452937423</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>-0.04069101810455322</v>
+        <v>69031.22359413101</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.4176313579082489</v>
+        <v>77812.64098318256</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.4352450370788574</v>
+        <v>78150.11756440371</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.526064932346344</v>
+        <v>79890.21896314378</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.03574903309345245</v>
+        <v>70495.80841464479</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>-0.2468029260635376</v>
+        <v>65082.13712711754</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.3355919420719147</v>
+        <v>76240.77281676188</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.7078298926353455</v>
+        <v>83372.82000236845</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>1.435749769210815</v>
+        <v>97319.70236409181</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>1.230230093002319</v>
+        <v>93381.96300658961</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>1.646891236305237</v>
+        <v>101365.1547524801</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.418058156967163</v>
+        <v>116140.6467672379</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>3.01915717124939</v>
+        <v>127657.6522917778</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>3.018954753875732</v>
+        <v>127653.773992271</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>2.802826642990112</v>
+        <v>123512.7779368202</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.747930288314819</v>
+        <v>122460.9684927015</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.915752649307251</v>
+        <v>125676.4305260225</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.753662586212158</v>
+        <v>122570.7988284421</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.557441234588623</v>
+        <v>118811.2145719624</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.369065284729004</v>
+        <v>115201.9475399505</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>1.942146301269531</v>
+        <v>107022.2164570358</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>1.484576821327209</v>
+        <v>98255.22449207766</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>1.237309813499451</v>
+        <v>93517.60984370016</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.6717499494552612</v>
+        <v>82681.53138758623</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.5164894461631775</v>
+        <v>79706.75346968698</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.3265884816646576</v>
+        <v>76068.26728807759</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>-0.01244239322841167</v>
+        <v>69572.46482232977</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.2046200782060623</v>
+        <v>73731.36314570544</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.2025015950202942</v>
+        <v>73690.77318968419</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.05778300762176514</v>
+        <v>70917.97747554928</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>-0.506499707698822</v>
+        <v>60106.36907936874</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-0.3157343864440918</v>
+        <v>63761.41626224401</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.4788413345813751</v>
+        <v>78985.41888291534</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.5661357045173645</v>
+        <v>80657.97151888086</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>1.863219976425171</v>
+        <v>105509.9948468415</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>2.121663570404053</v>
+        <v>110461.751926648</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>2.999656915664673</v>
+        <v>127284.0290683771</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>3.315587997436523</v>
+        <v>133337.2414804538</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>3.358776330947876</v>
+        <v>134164.7262439081</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>2.750032186508179</v>
+        <v>122501.2406816916</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>2.441215515136719</v>
+        <v>116584.3397622947</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.350934267044067</v>
+        <v>114854.5587971952</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>2.430388212203979</v>
+        <v>116376.8895673528</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>1.849415302276611</v>
+        <v>105245.4984749363</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>1.359111785888672</v>
+        <v>95851.32518106699</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>1.025579571723938</v>
+        <v>89460.8765829535</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>1.075923800468445</v>
+        <v>90425.46768492286</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.5572304725646973</v>
+        <v>80487.3480389561</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.2386448383331299</v>
+        <v>74383.27462957721</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-0.3354717791080475</v>
+        <v>63383.24951275728</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-0.1892952769994736</v>
+        <v>66183.97874761162</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.1560726463794708</v>
+        <v>72801.19851847389</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.1031568497419357</v>
+        <v>71787.33639637801</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.1073855385184288</v>
+        <v>71868.35771040992</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>-0.5549150705337524</v>
+        <v>59178.73488268265</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-0.4087068736553192</v>
+        <v>61980.07138660731</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1.283004760742188</v>
+        <v>94393.12111111853</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1.427891850471497</v>
+        <v>97169.14531544951</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1.981221079826355</v>
+        <v>107770.8858606057</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1.857212781906128</v>
+        <v>105394.8975154219</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>2.42317271232605</v>
+        <v>116238.6412089593</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>3.076822996139526</v>
+        <v>128762.5245475241</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>3.225144386291504</v>
+        <v>131604.3496532058</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>2.930400371551514</v>
+        <v>125957.0796270871</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>2.368751764297485</v>
+        <v>115195.9405153904</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1.841100096702576</v>
+        <v>105086.1798497873</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1.564764380455017</v>
+        <v>99791.61124289791</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1.690681099891663</v>
+        <v>102204.1647805467</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1.513293981552124</v>
+        <v>98805.44281734704</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.662328839302063</v>
+        <v>82501.02372561436</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.4234728813171387</v>
+        <v>77924.56407035024</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.4182026982307434</v>
+        <v>77823.58781472647</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.3113266229629517</v>
+        <v>75775.85138519647</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.2291225641965866</v>
+        <v>74200.8286743668</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>-0.04561078548431396</v>
+        <v>68936.96127337207</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-0.3643319308757782</v>
+        <v>62830.29148179974</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.0007925047539174557</v>
+        <v>69826.04433179082</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.2393428385257721</v>
+        <v>74396.64825336261</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.2326309382915497</v>
+        <v>74268.04882092135</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.3094991147518158</v>
+        <v>75740.83648471633</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.3623469173908234</v>
+        <v>76753.395847636</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.5235657095909119</v>
+        <v>79842.3340696446</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>2.306100606918335</v>
+        <v>113995.549717019</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>2.222736597061157</v>
+        <v>112398.3024428418</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>2.45445704460144</v>
+        <v>116838.0463303892</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>2.42833423614502</v>
+        <v>116337.5355623449</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.939046144485474</v>
+        <v>126122.7318944814</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>2.765749216079712</v>
+        <v>122802.3776193738</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.615427255630493</v>
+        <v>119922.2217584951</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>2.510560512542725</v>
+        <v>117912.9839610842</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>2.235124349594116</v>
+        <v>112635.6507181988</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>1.889276623725891</v>
+        <v>106009.2379728208</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1.708454728126526</v>
+        <v>102544.7059721114</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>1.341337561607361</v>
+        <v>95510.77256930352</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1.049435257911682</v>
+        <v>89917.94948290495</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.5487343072891235</v>
+        <v>80324.56224145646</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.3729955852031708</v>
+        <v>76957.42340900247</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.2186281532049179</v>
+        <v>73999.75666044549</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.2106446325778961</v>
+        <v>73846.79309041456</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-0.4780842065811157</v>
+        <v>60650.80764203379</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>-0.6045668721199036</v>
+        <v>58227.41062564008</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>-0.678515613079071</v>
+        <v>56810.55909548663</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>-0.6732337474822998</v>
+        <v>56911.75918700654</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>-0.5080747604370117</v>
+        <v>60076.19120408336</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>-0.2021756917238235</v>
+        <v>65937.19110695006</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.9540815949440002</v>
+        <v>88090.98148413814</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1.282294154167175</v>
+        <v>94379.50595012885</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.9417874217033386</v>
+        <v>87855.42617999007</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.4632695615291595</v>
+        <v>78687.06504767673</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.6785345077514648</v>
+        <v>82811.52294225921</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1.252347230911255</v>
+        <v>93805.72547072938</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1.135439157485962</v>
+        <v>91565.77681749428</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.816204845905304</v>
+        <v>85449.27480577931</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.3353777527809143</v>
+        <v>76236.66896832903</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.2725816071033478</v>
+        <v>75033.50020660357</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.5953238010406494</v>
+        <v>81217.21294320907</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.6408236622810364</v>
+        <v>82088.9863795656</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.6663670539855957</v>
+        <v>82578.39557237251</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.2896460890769958</v>
+        <v>75360.4542166656</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>-0.0758412629365921</v>
+        <v>68357.74791990632</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.1006232872605324</v>
+        <v>71738.79355667642</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.1608982682228088</v>
+        <v>72893.65701883499</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.1888599991798401</v>
+        <v>73429.40138416617</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>-0.06124395132064819</v>
+        <v>68637.43115765876</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-0.4794679880142212</v>
+        <v>60624.29450853803</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>-0.1748621463775635</v>
+        <v>66460.51629160915</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.1394971311092377</v>
+        <v>72483.61306848389</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.2465431988239288</v>
+        <v>74534.60653870695</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.5001684427261353</v>
+        <v>79394.04444457754</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>-0.4090473055839539</v>
+        <v>61973.54874007212</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.09600986540317535</v>
+        <v>71650.40078983473</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>1.02474057674408</v>
+        <v>89444.80151114585</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>1.051674604415894</v>
+        <v>89960.85516973454</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.6827966570854187</v>
+        <v>82893.18535770032</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.2464382350444794</v>
+        <v>74532.59544170118</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.2133198231458664</v>
+        <v>73898.04951209959</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.6252285242080688</v>
+        <v>81790.18487253468</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.7210687398910522</v>
+        <v>83626.47517956847</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.5210807323455811</v>
+        <v>79794.72211889634</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.318015456199646</v>
+        <v>75904.0088559448</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.5153899788856506</v>
+        <v>79685.68777101095</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.6869277358055115</v>
+        <v>82972.33647142895</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.7075602412223816</v>
+        <v>83367.6535044388</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.2211959064006805</v>
+        <v>74048.95459129981</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>-0.122642993927002</v>
+        <v>67461.03077087186</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.1225066930055618</v>
+        <v>72158.07773261573</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.1667091995477676</v>
+        <v>73004.9939643001</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.1240290254354477</v>
+        <v>72187.2454913187</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-0.1136066615581512</v>
+        <v>67634.16612351905</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-0.5617371201515198</v>
+        <v>59048.02499750619</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>-0.3682273924350739</v>
+        <v>62755.65477265023</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.2211536467075348</v>
+        <v>74048.14489920606</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.4913186132907867</v>
+        <v>79224.48247212969</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.6535474061965942</v>
+        <v>82332.77222097693</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>1.414411664009094</v>
+        <v>96910.86609976206</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>2.225338459014893</v>
+        <v>112448.1538945715</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.465026378631592</v>
+        <v>117040.5538632976</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>3.171954870223999</v>
+        <v>130585.2430903236</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>3.250415086746216</v>
+        <v>132088.5341050693</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.901124954223633</v>
+        <v>125396.1651436371</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>2.341264486312866</v>
+        <v>114669.2866282909</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>2.03457498550415</v>
+        <v>108793.1421143124</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>1.654252767562866</v>
+        <v>101506.2010595755</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>1.818614840507507</v>
+        <v>104655.3642708788</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>1.581319093704224</v>
+        <v>100108.7981279504</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>1.178099274635315</v>
+        <v>92383.14100078662</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.4470520317554474</v>
+        <v>78376.33856907609</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.1373034119606018</v>
+        <v>72441.58159787119</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.3687944114208221</v>
+        <v>76876.92927989691</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.268181711435318</v>
+        <v>74949.19858322358</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.2305790185928345</v>
+        <v>74228.73421559924</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>-0.402591735124588</v>
+        <v>62097.23691602654</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>-0.4413063228130341</v>
+        <v>61355.46873858153</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.1524812430143356</v>
+        <v>72732.38753822881</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.2063270956277847</v>
+        <v>73764.06945300149</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.2817019820213318</v>
+        <v>75208.24580727922</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-0.1759900003671646</v>
+        <v>66438.90670596606</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>-0.3425228297710419</v>
+        <v>63248.1519872082</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>1.424639105796814</v>
+        <v>97106.82300664825</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>2.124854564666748</v>
+        <v>110522.8911028553</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>2.049445390701294</v>
+        <v>109078.0578016425</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>2.031181573867798</v>
+        <v>108728.1246385983</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>2.205639839172363</v>
+        <v>112070.7300290156</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>2.342916250228882</v>
+        <v>114700.9342831597</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>2.418978691101074</v>
+        <v>116158.2841222392</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.126046180725098</v>
+        <v>110545.7223642632</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>1.637118697166443</v>
+        <v>101177.9137413055</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>1.300868630409241</v>
+        <v>94735.39132077905</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>1.420550227165222</v>
+        <v>97028.48044299349</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>1.394527316093445</v>
+        <v>96529.88370026526</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>1.189522624015808</v>
+        <v>92602.011394512</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.2245922386646271</v>
+        <v>74114.02802598802</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>-0.05233085155487061</v>
+        <v>68808.20538420747</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.3125270307064056</v>
+        <v>75798.85109453648</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.2852056324481964</v>
+        <v>75275.37544875841</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.2861677706241608</v>
+        <v>75293.80993363472</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-0.2106535732746124</v>
+        <v>65774.75562404809</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-0.4903084933757782</v>
+        <v>60416.59135619309</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.1376832723617554</v>
+        <v>72448.85969055591</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.4047967493534088</v>
+        <v>77566.73098479751</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>1.481147050857544</v>
+        <v>98189.51038423768</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.6873225569725037</v>
+        <v>82979.90121110313</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>1.290386199951172</v>
+        <v>94534.54885285329</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>1.835346817970276</v>
+        <v>104975.9475230495</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.485328197479248</v>
+        <v>117429.5349700224</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>2.731728076934814</v>
+        <v>122150.5355132096</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.335751295089722</v>
+        <v>114563.6543576231</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.055185794830322</v>
+        <v>109188.0434520866</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>1.826523184776306</v>
+        <v>104806.8874683382</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>2.15252685546875</v>
+        <v>111053.0898196572</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.152018785476685</v>
+        <v>111043.3552422141</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>1.997837066650391</v>
+        <v>108089.2467420931</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>1.347034573554993</v>
+        <v>95619.92682927613</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.8917416334152222</v>
+        <v>86896.55317155161</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>1.113598346710205</v>
+        <v>91147.30875751055</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.9021977186203003</v>
+        <v>87096.89086669114</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.6624347567558289</v>
+        <v>82503.05309493818</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.4687805473804474</v>
+        <v>78792.65506360903</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.4318088591098785</v>
+        <v>78084.28068942683</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.3945388495922089</v>
+        <v>77370.19050575349</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.1573989540338516</v>
+        <v>72826.61045930196</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-0.1965623795986176</v>
+        <v>66044.7416855085</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-0.2196550667285919</v>
+        <v>65602.28778201979</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-0.1271117031574249</v>
+        <v>67375.41068554233</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>1.208291411399841</v>
+        <v>92961.61974996561</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>1.314597249031067</v>
+        <v>94998.43047531947</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.172251224517822</v>
+        <v>111431.0070378005</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>1.938287496566772</v>
+        <v>106948.2820901115</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>2.082706451416016</v>
+        <v>109715.3368703179</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>2.175580978393555</v>
+        <v>111494.8048362846</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>2.920347929000854</v>
+        <v>125764.4756905637</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>2.929344177246094</v>
+        <v>125936.8430348427</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.593977689743042</v>
+        <v>119511.2499169929</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>2.172637701034546</v>
+        <v>111438.4118946917</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>1.850437521934509</v>
+        <v>105265.08411585</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>1.524886131286621</v>
+        <v>99027.54741136789</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>1.67145836353302</v>
+        <v>101835.8588016996</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>1.437938928604126</v>
+        <v>97361.64647018381</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>1.166935443878174</v>
+        <v>92169.24296161157</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.2563947141170502</v>
+        <v>74723.36072622039</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>-0.008287457749247551</v>
+        <v>69652.07302951471</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.2113436162471771</v>
+        <v>73860.18555752796</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.1931870728731155</v>
+        <v>73512.30774475978</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.1577072739601135</v>
+        <v>72832.51784262768</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>-0.3674747049808502</v>
+        <v>62770.07619967403</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>-0.5106154680252075</v>
+        <v>60027.51146474885</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.3041466772556305</v>
+        <v>75638.28424166045</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.493255227804184</v>
+        <v>79261.58783999714</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>1.10916543006897</v>
+        <v>91062.37445511796</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.7051059603691101</v>
+        <v>83320.62969392788</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>1.380714058876038</v>
+        <v>96265.22287749758</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>1.78658652305603</v>
+        <v>104041.7044573274</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.495545387268066</v>
+        <v>117625.2954494895</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>2.801380395889282</v>
+        <v>123485.0679664919</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>2.651396751403809</v>
+        <v>120611.3942104428</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>1.956517457962036</v>
+        <v>107297.5665858649</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>1.7232745885849</v>
+        <v>102828.6532265846</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>2.079856634140015</v>
+        <v>109660.7346158943</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>1.966393113136292</v>
+        <v>107486.783291429</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>1.361189007759094</v>
+        <v>95891.12457382747</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.8412956595420837</v>
+        <v>85930.01264164993</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.7797164916992188</v>
+        <v>84750.16107079065</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.8430943489074707</v>
+        <v>85964.47537551886</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.4830749928951263</v>
+        <v>79066.5354128546</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.02076004631817341</v>
+        <v>70208.62071445487</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>-0.5190944075584412</v>
+        <v>59865.05571099404</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-0.28273805975914</v>
+        <v>64393.62304962977</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>-0.05485710501670837</v>
+        <v>68759.80258469346</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-0.006663917098194361</v>
+        <v>69683.17992904909</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>-0.1229836642742157</v>
+        <v>67454.50355625716</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>-0.710202157497406</v>
+        <v>56203.44762391766</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>-0.3200341165065765</v>
+        <v>63679.0338032696</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.4647694230079651</v>
+        <v>78715.80226488557</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.5138916969299316</v>
+        <v>79656.98081732889</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.5666682124137878</v>
+        <v>80668.17432447404</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.01806885935366154</v>
+        <v>70157.05780318497</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.0604451596736908</v>
+        <v>70968.98408038594</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.7448077797889709</v>
+        <v>84081.31314661799</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.662112832069397</v>
+        <v>82496.88504557523</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.6210222840309143</v>
+        <v>81709.59367173945</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.1764312088489532</v>
+        <v>73191.26682812285</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>-0.03161229938268661</v>
+        <v>69205.1710656642</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.2552139461040497</v>
+        <v>74700.7373124303</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.4731019735336304</v>
+        <v>78875.45321781916</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.5648547410964966</v>
+        <v>80633.42836967527</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.1655938029289246</v>
+        <v>72983.62306081157</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>-0.1010365262627602</v>
+        <v>67875.00883695138</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.055455282330513</v>
+        <v>70873.37845874509</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.1943890601396561</v>
+        <v>73535.33771762656</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.07230385392904282</v>
+        <v>71196.1956445503</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>-0.178519144654274</v>
+        <v>66390.44851848794</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>-0.5593514442443848</v>
+        <v>59093.73434313711</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>-0.3821102380752563</v>
+        <v>62489.66064167459</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-0.02814110927283764</v>
+        <v>69271.67877025525</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.01556198485195637</v>
+        <v>70109.02630288391</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.1394115537405014</v>
+        <v>72481.97341344354</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>-0.7093575000762939</v>
+        <v>56219.63118761374</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>-0.5038338303565979</v>
+        <v>60157.44706044779</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.5431031584739685</v>
+        <v>80216.66991344941</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.6811474561691284</v>
+        <v>82861.58680968628</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.7623539566993713</v>
+        <v>84417.49639032691</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.1562906354665756</v>
+        <v>72805.37517067399</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.08491301536560059</v>
+        <v>71437.78609549798</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.4911549687385559</v>
+        <v>79221.34705655368</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.7193396687507629</v>
+        <v>83593.34632491744</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.7776550054550171</v>
+        <v>84710.66317127807</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.320919007062912</v>
+        <v>75959.64064128877</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.1940719187259674</v>
+        <v>73529.26131535883</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.4531005024909973</v>
+        <v>78492.22674926139</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.5022099614143372</v>
+        <v>79433.15976743087</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.4242253005504608</v>
+        <v>77938.98035828458</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>-0.09442470967769623</v>
+        <v>68001.69067526443</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>-0.377932071685791</v>
+        <v>62569.71395110711</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>-0.156905934214592</v>
+        <v>66804.55577556622</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>-0.07656578719615936</v>
+        <v>68343.86609727505</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-0.06993618607521057</v>
+        <v>68470.88868576929</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-0.309643417596817</v>
+        <v>63878.11870260258</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>-0.7965999841690063</v>
+        <v>54548.07267995232</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>-0.5561108589172363</v>
+        <v>59155.82367988321</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>-0.02539859525859356</v>
+        <v>69324.22510339289</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.290478378534317</v>
+        <v>75376.40081123693</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.3743609189987183</v>
+        <v>76983.58308734588</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.3960710763931274</v>
+        <v>77399.54783975627</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.8898096084594727</v>
+        <v>86859.5357392148</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>1.825884819030762</v>
+        <v>104794.6564354411</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.113202333450317</v>
+        <v>110299.635352797</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>1.917799234390259</v>
+        <v>106555.7287452073</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>1.661138534545898</v>
+        <v>101638.131764002</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>1.63169002532959</v>
+        <v>101073.9008548252</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>1.956199526786804</v>
+        <v>107291.4750518338</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>1.705292820930481</v>
+        <v>102484.1241016047</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>1.026417255401611</v>
+        <v>89476.92653032382</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.5382738709449768</v>
+        <v>80124.1411788658</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.4997246265411377</v>
+        <v>79385.54096456335</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.6108010411262512</v>
+        <v>81513.75553492062</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.4073147475719452</v>
+        <v>77614.97561455837</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.09171745181083679</v>
+        <v>71568.15851380039</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>-0.4948191940784454</v>
+        <v>60330.16671785926</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>-0.3648179769515991</v>
+        <v>62820.97888070175</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-0.0388195663690567</v>
+        <v>69067.08044876646</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-0.03995281457901001</v>
+        <v>69045.36751032437</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-0.06104619801044464</v>
+        <v>68641.22009411016</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-0.7766814827919006</v>
+        <v>54929.70945683942</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>-0.5549535155296326</v>
+        <v>59177.99827986111</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>1.133310437202454</v>
+        <v>91524.99071955892</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>1.064443826675415</v>
+        <v>90205.51237231304</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>1.82823121547699</v>
+        <v>104839.6131899722</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>1.427016615867615</v>
+        <v>97152.37589555583</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>1.554871320724487</v>
+        <v>99602.06106752927</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>1.820843935012817</v>
+        <v>104698.0735302893</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>2.024081230163574</v>
+        <v>108592.0826626098</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>2.000599384307861</v>
+        <v>108142.1725113353</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>1.904831171035767</v>
+        <v>106307.2617643146</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>1.74918806552887</v>
+        <v>103325.1532208162</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>1.128649234771729</v>
+        <v>91435.68248103226</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.6684862971305847</v>
+        <v>82619.00008914722</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.459316223859787</v>
+        <v>78611.31943722535</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.4437020719051361</v>
+        <v>78312.15362585323</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.2808270156383514</v>
+        <v>75191.48152647499</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.1095080003142357</v>
+        <v>71909.02389625806</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>-0.02422293834388256</v>
+        <v>69346.75058897842</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-0.1235935837030411</v>
+        <v>67442.81755234698</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-0.06214375793933868</v>
+        <v>68620.19094007023</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>-0.119092121720314</v>
+        <v>67529.06517759967</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-0.09440404176712036</v>
+        <v>68002.08667065724</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-0.2106911391019821</v>
+        <v>65774.03586601977</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-0.1415026932954788</v>
+        <v>67099.68054959879</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.03649011254310608</v>
+        <v>70510.00743329727</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.6823891401290894</v>
+        <v>82885.37736779205</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.6249732375144958</v>
+        <v>81785.29360139571</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>1.190428614616394</v>
+        <v>92619.3700966629</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>1.18717634677887</v>
+        <v>92557.05692402065</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>1.49610435962677</v>
+        <v>98476.09113655039</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>1.506124258041382</v>
+        <v>98668.07153022016</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>1.906404137611389</v>
+        <v>106337.3996689042</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>1.896979928016663</v>
+        <v>106156.8326218987</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>1.941108465194702</v>
+        <v>107002.331606914</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>1.856902122497559</v>
+        <v>105388.9453078159</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>1.808458209037781</v>
+        <v>104460.7640836081</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>1.624194979667664</v>
+        <v>100930.2964232023</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>1.27436637878418</v>
+        <v>94227.61045418914</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>1.128434658050537</v>
+        <v>91431.5712094702</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>0.9179049134254456</v>
+        <v>87397.83937109336</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>0.6087963581085205</v>
+        <v>81475.34598035211</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>0.3507181704044342</v>
+        <v>76530.59005340982</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>0.1639518290758133</v>
+        <v>72952.16298270778</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>0.1546511501073837</v>
+        <v>72773.96277190011</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>0.05877296626567841</v>
+        <v>70936.94499820382</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>0.06398497521877289</v>
+        <v>71036.80664242631</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>0.03620073199272156</v>
+        <v>70504.46292678789</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>0.07548007369041443</v>
+        <v>71257.05174258025</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>0.2462293058633804</v>
+        <v>74528.5923765226</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>0.9093270897865295</v>
+        <v>87233.48900636037</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>0.9902327656745911</v>
+        <v>88783.63481267498</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>1.628097176551819</v>
+        <v>101005.0621805981</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>1.518545389175415</v>
+        <v>98906.05933670911</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>1.475050330162048</v>
+        <v>98072.69773896087</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>1.742825746536255</v>
+        <v>103203.2517349615</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>1.84047532081604</v>
+        <v>105074.2091974224</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>1.872580528259277</v>
+        <v>105689.3422166169</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>1.792035579681396</v>
+        <v>104146.1079146061</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>1.621730923652649</v>
+        <v>100883.0853214314</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>1.445836067199707</v>
+        <v>97512.95496790606</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>1.172376275062561</v>
+        <v>92273.48882014703</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>0.9285241365432739</v>
+        <v>87601.30277463993</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>0.7855355143547058</v>
+        <v>84861.65304545424</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>0.6669193506240845</v>
+        <v>82588.9775285653</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>0.307406097650528</v>
+        <v>75700.73445668811</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>0.1300113797187805</v>
+        <v>72301.86688595395</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>-0.02515303902328014</v>
+        <v>69328.92993978671</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>-0.03487291932106018</v>
+        <v>69142.69786748649</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>-0.05341517925262451</v>
+        <v>68787.42975858053</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-0.09507457911968231</v>
+        <v>67989.23923253079</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>-0.1448798030614853</v>
+        <v>67034.97541632134</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>-0.08358162641525269</v>
+        <v>68209.44321996911</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>0.0546334832906723</v>
+        <v>70857.63285967235</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>0.7349689602851868</v>
+        <v>83892.80220933865</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>0.4476070702075958</v>
+        <v>78386.97305818328</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>0.9859310388565063</v>
+        <v>88701.21409603464</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>0.9841075539588928</v>
+        <v>88666.27628189631</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>0.974532425403595</v>
+        <v>88482.81764055877</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>1.316317439079285</v>
+        <v>95031.38916900862</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>1.44542407989502</v>
+        <v>97505.06132650691</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>1.295008063316345</v>
+        <v>94623.10335826024</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>1.312263488769531</v>
+        <v>94953.71582900258</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>1.375094532966614</v>
+        <v>96157.55324336683</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" t="n">
-        <v>1.227591753005981</v>
+        <v>93331.41263869435</v>
       </c>
     </row>
     <row r="1003">
       <c r="A1003" t="n">
-        <v>0.9978920817375183</v>
+        <v>88930.3866510826</v>
       </c>
     </row>
     <row r="1004">
       <c r="A1004" t="n">
-        <v>0.7713466286659241</v>
+        <v>84589.79521341322</v>
       </c>
     </row>
     <row r="1005">
       <c r="A1005" t="n">
-        <v>0.4655910432338715</v>
+        <v>78731.54443789867</v>
       </c>
     </row>
     <row r="1006">
       <c r="A1006" t="n">
-        <v>-0.4112286269664764</v>
+        <v>61931.75480959411</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="n">
-        <v>-0.8427878618240356</v>
+        <v>53663.11690814001</v>
       </c>
     </row>
     <row r="1008">
       <c r="A1008" t="n">
-        <v>-0.9884364008903503</v>
+        <v>50872.50339986311</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="n">
-        <v>-1.036107659339905</v>
+        <v>49959.12617933833</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" t="n">
-        <v>-1.022052884101868</v>
+        <v>50228.41446665306</v>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="n">
-        <v>-1.06745970249176</v>
+        <v>49358.42372332665</v>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="n">
-        <v>-1.090965747833252</v>
+        <v>48908.04991198159</v>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="n">
-        <v>-1.104864358901978</v>
+        <v>48641.75371674812</v>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="n">
-        <v>-1.149872422218323</v>
+        <v>47779.40308640786</v>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="n">
-        <v>-0.9507946372032166</v>
+        <v>51593.71636151771</v>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
-        <v>-0.6741623282432556</v>
+        <v>56893.96765932174</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
-        <v>0.114497646689415</v>
+        <v>72004.62509257188</v>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="n">
-        <v>0.3997495472431183</v>
+        <v>77470.02702553866</v>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="n">
-        <v>0.09624330699443817</v>
+        <v>71654.8735106883</v>
       </c>
     </row>
     <row r="1020">
       <c r="A1020" t="n">
-        <v>-0.704537570476532</v>
+        <v>56311.98062507645</v>
       </c>
     </row>
     <row r="1021">
       <c r="A1021" t="n">
-        <v>-0.3657725155353546</v>
+        <v>62802.69000335992</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="n">
-        <v>0.1523025035858154</v>
+        <v>72728.96290611861</v>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
-        <v>0.06146752089262009</v>
+        <v>70988.57243359684</v>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="n">
-        <v>-0.1944050192832947</v>
+        <v>66086.07652399542</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="n">
-        <v>-0.6571850180625916</v>
+        <v>57219.2514653117</v>
       </c>
     </row>
     <row r="1026">
       <c r="A1026" t="n">
-        <v>-0.6169458627700806</v>
+        <v>57990.23022720512</v>
       </c>
     </row>
     <row r="1027">
       <c r="A1027" t="n">
-        <v>-0.2736604809761047</v>
+        <v>64567.54868003278</v>
       </c>
     </row>
     <row r="1028">
       <c r="A1028" t="n">
-        <v>-0.3656874001026154</v>
+        <v>62804.3208077462</v>
       </c>
     </row>
     <row r="1029">
       <c r="A1029" t="n">
-        <v>-0.4086563885211945</v>
+        <v>61981.03867744427</v>
       </c>
     </row>
     <row r="1030">
       <c r="A1030" t="n">
-        <v>-0.7963239550590515</v>
+        <v>54553.36137400895</v>
       </c>
     </row>
     <row r="1031">
       <c r="A1031" t="n">
-        <v>-0.8531704545021057</v>
+        <v>53464.18732351049</v>
       </c>
     </row>
     <row r="1032">
       <c r="A1032" t="n">
-        <v>-0.2813884317874908</v>
+        <v>64419.48180573523</v>
       </c>
     </row>
     <row r="1033">
       <c r="A1033" t="n">
-        <v>-0.4227069318294525</v>
+        <v>61711.83147354089</v>
       </c>
     </row>
     <row r="1034">
       <c r="A1034" t="n">
-        <v>-0.2934923470020294</v>
+        <v>64187.57182903886</v>
       </c>
     </row>
     <row r="1035">
       <c r="A1035" t="n">
-        <v>-0.9328296184539795</v>
+        <v>51937.92457891179</v>
       </c>
     </row>
     <row r="1036">
       <c r="A1036" t="n">
-        <v>-0.9626439213752747</v>
+        <v>51366.68509374165</v>
       </c>
     </row>
     <row r="1037">
       <c r="A1037" t="n">
-        <v>-0.251367598772049</v>
+        <v>64994.67838978386</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" t="n">
-        <v>-0.2264328747987747</v>
+        <v>65472.42556109804</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" t="n">
-        <v>-0.1078407466411591</v>
+        <v>67744.64055847104</v>
       </c>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
-        <v>-0.9327952861785889</v>
+        <v>51938.58238236172</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" t="n">
-        <v>-0.9802839159965515</v>
+        <v>51028.7043107442</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" t="n">
-        <v>0.08488715440034866</v>
+        <v>71437.29060162326</v>
       </c>
     </row>
     <row r="1043">
       <c r="A1043" t="n">
-        <v>-0.1002789214253426</v>
+        <v>67889.52448061515</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
-        <v>-0.4941133558750153</v>
+        <v>60343.69051725867</v>
       </c>
     </row>
     <row r="1045">
       <c r="A1045" t="n">
-        <v>-0.9086999297142029</v>
+        <v>52400.24734424402</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" t="n">
-        <v>-0.6844754815101624</v>
+        <v>56696.36852785049</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" t="n">
-        <v>-0.24673031270504</v>
+        <v>65083.52839283433</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" t="n">
-        <v>-0.2323442846536636</v>
+        <v>65359.16345562301</v>
       </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
-        <v>-0.3688793480396271</v>
+        <v>62743.16335922085</v>
       </c>
     </row>
     <row r="1050">
       <c r="A1050" t="n">
-        <v>-0.6675182580947876</v>
+        <v>57021.26747314144</v>
       </c>
     </row>
     <row r="1051">
       <c r="A1051" t="n">
-        <v>-0.5606840848922729</v>
+        <v>59068.20106269699</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" t="n">
-        <v>-0.1811167597770691</v>
+        <v>66340.67843567458</v>
       </c>
     </row>
     <row r="1053">
       <c r="A1053" t="n">
-        <v>-0.07640069723129272</v>
+        <v>68347.0292068331</v>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="n">
-        <v>-0.09299560636281967</v>
+        <v>68029.07217212518</v>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="n">
-        <v>-0.5866236090660095</v>
+        <v>58571.20200577856</v>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="n">
-        <v>-0.6425577998161316</v>
+        <v>57499.50771153811</v>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="n">
-        <v>-0.2986090183258057</v>
+        <v>64089.53684561179</v>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="n">
-        <v>-0.2662514746189117</v>
+        <v>64709.50460596128</v>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="n">
-        <v>-0.2542686760425568</v>
+        <v>64939.09399826485</v>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="n">
-        <v>-0.8826148509979248</v>
+        <v>52900.03521370537</v>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="n">
-        <v>-1.037354707717896</v>
+        <v>49935.2328394435</v>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="n">
-        <v>-0.263814389705658</v>
+        <v>64756.19894373728</v>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="n">
-        <v>-0.1520538777112961</v>
+        <v>66897.52076174335</v>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="n">
-        <v>0.1025769412517548</v>
+        <v>71776.22539947658</v>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="n">
-        <v>-1.017853736877441</v>
+        <v>50308.86976708277</v>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
-        <v>-0.6993532180786133</v>
+        <v>56411.31237207539</v>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="n">
-        <v>0.1579282134771347</v>
+        <v>72836.75102481175</v>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
-        <v>0.2951310575008392</v>
+        <v>75465.54574092099</v>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
-        <v>0.09146445989608765</v>
+        <v>71563.31121042673</v>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="n">
-        <v>-0.3604361414909363</v>
+        <v>62904.93447205859</v>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="n">
-        <v>-0.2923240959644318</v>
+        <v>64209.95541865451</v>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="n">
-        <v>0.225356251001358</v>
+        <v>74128.66643678871</v>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
-        <v>0.2965344190597534</v>
+        <v>75492.43402794679</v>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="n">
-        <v>0.2825762629508972</v>
+        <v>75224.99695485485</v>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="n">
-        <v>-0.2560229003429413</v>
+        <v>64905.48321122515</v>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="n">
-        <v>-0.4404695928096771</v>
+        <v>61371.5004136338</v>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="n">
-        <v>0.08752924203872681</v>
+        <v>71487.91277401836</v>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="n">
-        <v>0.2010872662067413</v>
+        <v>73663.67477100078</v>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="n">
-        <v>0.01609841175377369</v>
+        <v>70119.30419628408</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="n">
-        <v>-0.7144537568092346</v>
+        <v>56121.987345995</v>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="n">
-        <v>-0.905517578125</v>
+        <v>52461.22092756897</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="n">
-        <v>-0.2059905230998993</v>
+        <v>65864.09926519098</v>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="n">
-        <v>-0.3124777972698212</v>
+        <v>63823.81223132744</v>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="n">
-        <v>-0.2437088340520859</v>
+        <v>65141.41966450762</v>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="n">
-        <v>-0.9767733216285706</v>
+        <v>51095.96699753921</v>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="n">
-        <v>-0.9205378293991089</v>
+        <v>52173.43420226472</v>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="n">
-        <v>-0.01114979200065136</v>
+        <v>69597.23095091662</v>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="n">
-        <v>0.2617510855197906</v>
+        <v>74825.98834258824</v>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
-        <v>0.3924920260906219</v>
+        <v>77330.97354313098</v>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="n">
-        <v>-0.2993525862693787</v>
+        <v>64075.29014762938</v>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="n">
-        <v>-0.3251774907112122</v>
+        <v>63580.48719493703</v>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="n">
-        <v>-0.08659302443265915</v>
+        <v>68151.74509240776</v>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="n">
-        <v>0.9965677857398987</v>
+        <v>88905.01325342545</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="n">
-        <v>1.142092823982239</v>
+        <v>91693.26049651441</v>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="n">
-        <v>0.8986782431602478</v>
+        <v>87029.45801893427</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="n">
-        <v>0.5519051551818848</v>
+        <v>80385.31541494488</v>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="n">
-        <v>0.466227650642395</v>
+        <v>78743.74178120939</v>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="n">
-        <v>0.3203006088733673</v>
+        <v>75947.7921850509</v>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="n">
-        <v>0.6171228289604187</v>
+        <v>81634.8804472581</v>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="n">
-        <v>0.3607124388217926</v>
+        <v>76722.0793785319</v>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="n">
-        <v>0.201963871717453</v>
+        <v>73680.47045735166</v>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="n">
-        <v>-0.312800258398056</v>
+        <v>63817.63390378557</v>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="n">
-        <v>-0.5482117533683777</v>
+        <v>59307.16986426144</v>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="n">
-        <v>-0.1082728803157806</v>
+        <v>67736.360914353</v>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="n">
-        <v>-0.2822007834911346</v>
+        <v>64403.91721681321</v>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="n">
-        <v>-0.3112782537937164</v>
+        <v>63846.79538137922</v>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="n">
-        <v>-0.7895099520683289</v>
+        <v>54683.91708650183</v>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="n">
-        <v>-1.01858389377594</v>
+        <v>50294.88002357299</v>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="n">
-        <v>-0.5175870656967163</v>
+        <v>59893.93625169762</v>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="n">
-        <v>-0.3812707960605621</v>
+        <v>62505.74427863132</v>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="n">
-        <v>-0.2320644855499268</v>
+        <v>65364.52438243695</v>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="n">
-        <v>-0.3671480715274811</v>
+        <v>62776.33446860738</v>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="n">
-        <v>-0.7026841640472412</v>
+        <v>56347.49173319372</v>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
-        <v>0.2281047105789185</v>
+        <v>74181.3266864092</v>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="n">
-        <v>0.8027570843696594</v>
+        <v>85191.61684890567</v>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="n">
-        <v>0.9275953769683838</v>
+        <v>87583.50782089549</v>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="n">
-        <v>0.5392414331436157</v>
+        <v>80142.67958755104</v>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="n">
-        <v>0.388571560382843</v>
+        <v>77255.85775664249</v>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="n">
-        <v>0.7740960121154785</v>
+        <v>84642.47316434183</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="n">
-        <v>1.194637537002563</v>
+        <v>92700.01268835265</v>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="n">
-        <v>0.9857593774795532</v>
+        <v>88697.92507878499</v>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="n">
-        <v>0.5603030920028687</v>
+        <v>80546.219163685</v>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="n">
-        <v>0.1928403228521347</v>
+        <v>73505.66404411747</v>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="n">
-        <v>0.362358957529068</v>
+        <v>76753.62653565142</v>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>0.4145490527153015</v>
+        <v>77753.58428022343</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>0.4889889657497406</v>
+        <v>79179.84662518441</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>-0.1122826039791107</v>
+        <v>67659.53495309671</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>-0.4730850756168365</v>
+        <v>60746.59056226075</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>-0.1281363666057587</v>
+        <v>67355.77822181363</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>-0.04971493780612946</v>
+        <v>68858.32606712349</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>-0.052798792719841</v>
+        <v>68799.23967164752</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>-0.4564907252788544</v>
+        <v>61064.53689053232</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>-0.7286999821662903</v>
+        <v>55849.03089083101</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>-0.2571274936199188</v>
+        <v>64884.31929883959</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>0.1321586519479752</v>
+        <v>72343.00843757644</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>0.4961692988872528</v>
+        <v>79317.42119184963</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>0.2055770456790924</v>
+        <v>73749.69856035731</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>0.1621486246585846</v>
+        <v>72917.61374083305</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>0.2293513566255569</v>
+        <v>74205.21231766985</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1.346728563308716</v>
+        <v>95614.06369922069</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>1.462443351745605</v>
+        <v>97831.14911449121</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1.365258693695068</v>
+        <v>95969.09940708139</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>0.85512375831604</v>
+        <v>86194.9578273673</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>0.7226647138595581</v>
+        <v>83657.05390383114</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>0.6592649817466736</v>
+        <v>82442.32047780757</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>0.9750776290893555</v>
+        <v>88493.26369638603</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>0.7928909063339233</v>
+        <v>85002.58172450218</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>-0.01138891838490963</v>
+        <v>69592.64930991718</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>-0.3006909489631653</v>
+        <v>64049.64723328094</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>0.08582742512226105</v>
+        <v>71455.30610795671</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>0.1722298413515091</v>
+        <v>73110.76898745268</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>0.01789678819477558</v>
+        <v>70153.76093454867</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>-0.4085879027843475</v>
+        <v>61982.3508582845</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>-0.7921751141548157</v>
+        <v>54632.85280966133</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>-0.3519653975963593</v>
+        <v>63067.23319808012</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>-0.10932657122612</v>
+        <v>67716.17228694355</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>-0.1133034378290176</v>
+        <v>67639.97586414519</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>-0.2846008241176605</v>
+        <v>64357.93264439161</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>-0.7550002932548523</v>
+        <v>55345.11918758893</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>-0.1723448485136032</v>
+        <v>66508.74750263646</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>0.1619755625724792</v>
+        <v>72914.29788611627</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>0.5965914130210876</v>
+        <v>81241.50027996194</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>0.3377553820610046</v>
+        <v>76282.22414127638</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>0.06523951143026352</v>
+        <v>71060.84344856835</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>0.1552287936210632</v>
+        <v>72785.03037204617</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>0.6033197045326233</v>
+        <v>81370.41376786974</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>0.892769455909729</v>
+        <v>86916.24616233387</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>0.5975484251976013</v>
+        <v>81259.83655112871</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>0.3516344428062439</v>
+        <v>76548.14575398974</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>0.0259800311177969</v>
+        <v>70308.63517521233</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>-0.06233617663383484</v>
+        <v>68616.50421439795</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>0.1475530564785004</v>
+        <v>72637.96390716205</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>-0.05291124433279037</v>
+        <v>68797.08510839453</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>-0.1116908639669418</v>
+        <v>67670.87264094398</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>-0.9098628759384155</v>
+        <v>52377.96539439755</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>-1.011378407478333</v>
+        <v>50432.93652262687</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>-0.4937613606452942</v>
+        <v>60350.43471565026</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>-0.5528399348258972</v>
+        <v>59218.49430474737</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>-0.5754794478416443</v>
+        <v>58784.72317839375</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>-1.229745864868164</v>
+        <v>46249.0347803465</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>-1.360395073890686</v>
+        <v>43745.80714839655</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>-0.5716928839683533</v>
+        <v>58857.27341722552</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>-0.4405398964881897</v>
+        <v>61370.15340118729</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>-0.1921789795160294</v>
+        <v>66128.72725488716</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>-1.348370313644409</v>
+        <v>43976.20052269447</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>-0.08846433460712433</v>
+        <v>68115.89095006953</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>0.1217061281204224</v>
+        <v>72142.73897812465</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>0.0682515949010849</v>
+        <v>71118.5547093583</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>0.02381390146911144</v>
+        <v>70267.13231705081</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>0.04022655263543129</v>
+        <v>70581.59730478759</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>-0.5012449622154236</v>
+        <v>60207.04955184401</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>-0.5832141041755676</v>
+        <v>58636.52782685989</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>-0.6601743698120117</v>
+        <v>57161.97574235285</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>-0.6898006796836853</v>
+        <v>56594.33818787902</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>-0.6922434568405151</v>
+        <v>56547.53478720463</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>-0.3928346037864685</v>
+        <v>62284.18271506261</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
-        <v>-0.213539719581604</v>
+        <v>65719.4573085086</v>
       </c>
     </row>
     <row r="1198">
       <c r="A1198" t="n">
-        <v>-0.1265636384487152</v>
+        <v>67385.91155832374</v>
       </c>
     </row>
     <row r="1199">
       <c r="A1199" t="n">
-        <v>-0.5635772943496704</v>
+        <v>59012.76741780192</v>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="n">
-        <v>-0.8993484377861023</v>
+        <v>52579.42112699799</v>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="n">
-        <v>-0.6840425729751587</v>
+        <v>56704.66301822694</v>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="n">
-        <v>-0.4653353989124298</v>
+        <v>60895.07370280396</v>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="n">
-        <v>-0.5608260631561279</v>
+        <v>59065.48077134676</v>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
-        <v>-0.8622098565101624</v>
+        <v>53290.99315683956</v>
       </c>
     </row>
     <row r="1205">
       <c r="A1205" t="n">
-        <v>-1.269488573074341</v>
+        <v>45487.56790201985</v>
       </c>
     </row>
     <row r="1206">
       <c r="A1206" t="n">
-        <v>-0.9601880311965942</v>
+        <v>51413.73973878927</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" t="n">
-        <v>-0.3517455160617828</v>
+        <v>63071.44610941135</v>
       </c>
     </row>
     <row r="1208">
       <c r="A1208" t="n">
-        <v>-0.3333097994327545</v>
+        <v>63424.67285778476</v>
       </c>
     </row>
     <row r="1209">
       <c r="A1209" t="n">
-        <v>-0.6142851710319519</v>
+        <v>58041.20885255475</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="n">
-        <v>-1.004955053329468</v>
+        <v>50556.00743683705</v>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="n">
-        <v>-0.8409886360168457</v>
+        <v>53697.58992018786</v>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
-        <v>-0.04478971660137177</v>
+        <v>68952.6928827013</v>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="n">
-        <v>0.07860387861728668</v>
+        <v>71316.90357687969</v>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="n">
-        <v>-0.04176698252558708</v>
+        <v>69010.60820816827</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="n">
-        <v>-0.5125989317893982</v>
+        <v>59989.50846925702</v>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="n">
-        <v>-0.5206475257873535</v>
+        <v>59835.2980990239</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="n">
-        <v>-0.06171271950006485</v>
+        <v>68628.449599573</v>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
-        <v>-0.05880232900381088</v>
+        <v>68684.212431698</v>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="n">
-        <v>-0.0187410619109869</v>
+        <v>69451.78287095262</v>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="n">
-        <v>-0.5719899535179138</v>
+        <v>58851.58159015183</v>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="n">
-        <v>-0.7117070555686951</v>
+        <v>56174.6139060291</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="n">
-        <v>-0.2679455280303955</v>
+        <v>64677.04668798878</v>
       </c>
     </row>
     <row r="1223">
       <c r="A1223" t="n">
-        <v>-0.1646364033222198</v>
+        <v>66656.44065092881</v>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="n">
-        <v>-0.2412842512130737</v>
+        <v>65187.87446361413</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
-        <v>-0.9111736416816711</v>
+        <v>52352.85123525278</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="n">
-        <v>-1.113991260528564</v>
+        <v>48466.88306489578</v>
       </c>
     </row>
     <row r="1227">
       <c r="A1227" t="n">
-        <v>-0.574181854724884</v>
+        <v>58809.58495114541</v>
       </c>
     </row>
     <row r="1228">
       <c r="A1228" t="n">
-        <v>-0.4639833271503448</v>
+        <v>60920.97928172443</v>
       </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
-        <v>-0.4729020297527313</v>
+        <v>60750.09770530717</v>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="n">
-        <v>-0.954745352268219</v>
+        <v>51518.02099994097</v>
       </c>
     </row>
     <row r="1231">
       <c r="A1231" t="n">
-        <v>-1.118825078010559</v>
+        <v>48374.26753680142</v>
       </c>
     </row>
     <row r="1232">
       <c r="A1232" t="n">
-        <v>-0.2431206405162811</v>
+        <v>65152.68940217213</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="n">
-        <v>0.0213430393487215</v>
+        <v>70219.790810885</v>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="n">
-        <v>0.3743630945682526</v>
+        <v>76983.62477107144</v>
       </c>
     </row>
     <row r="1235">
       <c r="A1235" t="n">
-        <v>-0.01375722698867321</v>
+        <v>69547.2727203283</v>
       </c>
     </row>
     <row r="1236">
       <c r="A1236" t="n">
-        <v>0.4707378447055817</v>
+        <v>78830.15671237426</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
-        <v>1.07220184803009</v>
+        <v>90354.15539563922</v>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
-        <v>1.195782423019409</v>
+        <v>92721.94860617598</v>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
-        <v>1.237901449203491</v>
+        <v>93528.94553301267</v>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="n">
-        <v>0.7239334583282471</v>
+        <v>83681.36293896168</v>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="n">
-        <v>0.6356368660926819</v>
+        <v>81989.60780975166</v>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
-        <v>0.382028728723526</v>
+        <v>77130.49766358617</v>
       </c>
     </row>
     <row r="1243">
       <c r="A1243" t="n">
-        <v>0.1931956708431244</v>
+        <v>73512.47248112722</v>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="n">
-        <v>0.3068152964115143</v>
+        <v>75689.41475565391</v>
       </c>
     </row>
     <row r="1245">
       <c r="A1245" t="n">
-        <v>0.1174546629190445</v>
+        <v>72061.28126974672</v>
       </c>
     </row>
     <row r="1246">
       <c r="A1246" t="n">
-        <v>-0.02328422479331493</v>
+        <v>69364.73626004254</v>
       </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
-        <v>-0.5654019713401794</v>
+        <v>58977.80676326601</v>
       </c>
     </row>
     <row r="1248">
       <c r="A1248" t="n">
-        <v>-0.7024367451667786</v>
+        <v>56352.23225770875</v>
       </c>
     </row>
     <row r="1249">
       <c r="A1249" t="n">
-        <v>-0.2905522882938385</v>
+        <v>64243.90310155832</v>
       </c>
     </row>
     <row r="1250">
       <c r="A1250" t="n">
-        <v>-0.2647817432880402</v>
+        <v>64737.66453212162</v>
       </c>
     </row>
     <row r="1251">
       <c r="A1251" t="n">
-        <v>-0.2918759882450104</v>
+        <v>64218.54112409994</v>
       </c>
     </row>
     <row r="1252">
       <c r="A1252" t="n">
-        <v>-1.010689973831177</v>
+        <v>50446.1268522218</v>
       </c>
     </row>
     <row r="1253">
       <c r="A1253" t="n">
-        <v>-1.042725563049316</v>
+        <v>49832.32771224521</v>
       </c>
     </row>
     <row r="1254">
       <c r="A1254" t="n">
-        <v>-0.2880946099758148</v>
+        <v>64290.99200720229</v>
       </c>
     </row>
     <row r="1255">
       <c r="A1255" t="n">
-        <v>-0.206269696354866</v>
+        <v>65858.75032958576</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" t="n">
-        <v>0.1665700376033783</v>
+        <v>73002.32763338913</v>
       </c>
     </row>
     <row r="1257">
       <c r="A1257" t="n">
-        <v>-0.610127866268158</v>
+        <v>58120.86245502986</v>
       </c>
     </row>
     <row r="1258">
       <c r="A1258" t="n">
-        <v>-0.1385270357131958</v>
+        <v>67156.69389349059</v>
       </c>
     </row>
     <row r="1259">
       <c r="A1259" t="n">
-        <v>0.7125559449195862</v>
+        <v>83463.37075852275</v>
       </c>
     </row>
     <row r="1260">
       <c r="A1260" t="n">
-        <v>1.217285871505737</v>
+        <v>93133.95283364828</v>
       </c>
     </row>
     <row r="1261">
       <c r="A1261" t="n">
-        <v>1.176063537597656</v>
+        <v>92344.13645386147</v>
       </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
-        <v>0.6031270623207092</v>
+        <v>81366.72275962292</v>
       </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
-        <v>0.4899542033672333</v>
+        <v>79198.3404950944</v>
       </c>
     </row>
     <row r="1264">
       <c r="A1264" t="n">
-        <v>0.4470549821853638</v>
+        <v>78376.39509906007</v>
       </c>
     </row>
     <row r="1265">
       <c r="A1265" t="n">
-        <v>0.7156018018722534</v>
+        <v>83521.72911632629</v>
       </c>
     </row>
     <row r="1266">
       <c r="A1266" t="n">
-        <v>0.8344018459320068</v>
+        <v>85797.92776453993</v>
       </c>
     </row>
     <row r="1267">
       <c r="A1267" t="n">
-        <v>0.1335116624832153</v>
+        <v>72368.93200330999</v>
       </c>
     </row>
     <row r="1268">
       <c r="A1268" t="n">
-        <v>-0.4128520488739014</v>
+        <v>61900.65018517745</v>
       </c>
     </row>
     <row r="1269">
       <c r="A1269" t="n">
-        <v>-0.3597137033939362</v>
+        <v>62918.77632399412</v>
       </c>
     </row>
     <row r="1270">
       <c r="A1270" t="n">
-        <v>0.009593667462468147</v>
+        <v>69994.67385393001</v>
       </c>
     </row>
     <row r="1271">
       <c r="A1271" t="n">
-        <v>-0.08757941424846649</v>
+        <v>68132.84594819344</v>
       </c>
     </row>
     <row r="1272">
       <c r="A1272" t="n">
-        <v>-0.7191987037658691</v>
+        <v>56031.07456953926</v>
       </c>
     </row>
     <row r="1273">
       <c r="A1273" t="n">
-        <v>-0.9936575889587402</v>
+        <v>50772.46588457936</v>
       </c>
     </row>
     <row r="1274">
       <c r="A1274" t="n">
-        <v>-0.5576129555702209</v>
+        <v>59127.04363692892</v>
       </c>
     </row>
     <row r="1275">
       <c r="A1275" t="n">
-        <v>-0.4263984262943268</v>
+        <v>61641.10275641509</v>
       </c>
     </row>
     <row r="1276">
       <c r="A1276" t="n">
-        <v>-0.4756863117218018</v>
+        <v>60696.75110173978</v>
       </c>
     </row>
     <row r="1277">
       <c r="A1277" t="n">
-        <v>-0.9295316338539124</v>
+        <v>52001.11368080073</v>
       </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
-        <v>-1.228303074836731</v>
+        <v>46276.67851352182</v>
       </c>
     </row>
     <row r="1279">
       <c r="A1279" t="n">
-        <v>-0.5082703828811646</v>
+        <v>60072.44309484262</v>
       </c>
     </row>
     <row r="1280">
       <c r="A1280" t="n">
-        <v>0.05581589043140411</v>
+        <v>70880.2876790091</v>
       </c>
     </row>
     <row r="1281">
       <c r="A1281" t="n">
-        <v>-0.0380193293094635</v>
+        <v>69082.4129221482</v>
       </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
-        <v>-0.1198718249797821</v>
+        <v>67514.12613006601</v>
       </c>
     </row>
     <row r="1283">
       <c r="A1283" t="n">
-        <v>0.07067392766475677</v>
+        <v>71164.96639721442</v>
       </c>
     </row>
     <row r="1284">
       <c r="A1284" t="n">
-        <v>0.7452874779701233</v>
+        <v>84090.50412259894</v>
       </c>
     </row>
     <row r="1285">
       <c r="A1285" t="n">
-        <v>1.355778932571411</v>
+        <v>95787.46799754922</v>
       </c>
     </row>
     <row r="1286">
       <c r="A1286" t="n">
-        <v>1.281997919082642</v>
+        <v>94373.83011133346</v>
       </c>
     </row>
     <row r="1287">
       <c r="A1287" t="n">
-        <v>1.082801938056946</v>
+        <v>90557.25221080484</v>
       </c>
     </row>
     <row r="1288">
       <c r="A1288" t="n">
-        <v>0.6630522608757019</v>
+        <v>82514.88442087788</v>
       </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
-        <v>0.6244837045669556</v>
+        <v>81775.91419213483</v>
       </c>
     </row>
     <row r="1290">
       <c r="A1290" t="n">
-        <v>0.3943912386894226</v>
+        <v>77367.36229352475</v>
       </c>
     </row>
     <row r="1291">
       <c r="A1291" t="n">
-        <v>0.1899213492870331</v>
+        <v>73449.73676112999</v>
       </c>
     </row>
     <row r="1292">
       <c r="A1292" t="n">
-        <v>0.1658273935317993</v>
+        <v>72988.09863671483</v>
       </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
-        <v>0.2208788692951202</v>
+        <v>74042.88018756687</v>
       </c>
     </row>
     <row r="1294">
       <c r="A1294" t="n">
-        <v>-0.08678454160690308</v>
+        <v>68148.07563978613</v>
       </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
-        <v>-0.4323344528675079</v>
+        <v>61527.36899673029</v>
       </c>
     </row>
     <row r="1296">
       <c r="A1296" t="n">
-        <v>-0.4279879629611969</v>
+        <v>61610.64737029927</v>
       </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
-        <v>-0.2107875496149063</v>
+        <v>65772.18864886653</v>
       </c>
     </row>
     <row r="1298">
       <c r="A1298" t="n">
-        <v>-0.1849475204944611</v>
+        <v>66267.28138910302</v>
       </c>
     </row>
     <row r="1299">
       <c r="A1299" t="n">
-        <v>-0.3449268639087677</v>
+        <v>63202.09089945474</v>
       </c>
     </row>
     <row r="1300">
       <c r="A1300" t="n">
-        <v>-0.8778526186943054</v>
+        <v>52991.27917592584</v>
       </c>
     </row>
     <row r="1301">
       <c r="A1301" t="n">
-        <v>-0.6598107814788818</v>
+        <v>57168.94206361078</v>
       </c>
     </row>
     <row r="1302">
       <c r="A1302" t="n">
-        <v>-0.1387764811515808</v>
+        <v>67151.91454029969</v>
       </c>
     </row>
     <row r="1303">
       <c r="A1303" t="n">
-        <v>0.02808435447514057</v>
+        <v>70348.95383013623</v>
       </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
-        <v>0.1025802195072174</v>
+        <v>71776.2882105699</v>
       </c>
     </row>
     <row r="1305">
       <c r="A1305" t="n">
-        <v>-0.4158983528614044</v>
+        <v>61842.28326222484</v>
       </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
-        <v>0.1765032857656479</v>
+        <v>73192.64781566075</v>
       </c>
     </row>
     <row r="1307">
       <c r="A1307" t="n">
-        <v>0.06338556110858917</v>
+        <v>71025.32191951969</v>
       </c>
     </row>
     <row r="1308">
       <c r="A1308" t="n">
-        <v>0.3315714597702026</v>
+        <v>76163.74072091753</v>
       </c>
     </row>
     <row r="1309">
       <c r="A1309" t="n">
-        <v>0.8950848579406738</v>
+        <v>86960.60906652822</v>
       </c>
     </row>
     <row r="1310">
       <c r="A1310" t="n">
-        <v>1.180115699768066</v>
+        <v>92421.77553327117</v>
       </c>
     </row>
     <row r="1311">
       <c r="A1311" t="n">
-        <v>1.063836693763733</v>
+        <v>90193.87975783218</v>
       </c>
     </row>
     <row r="1312">
       <c r="A1312" t="n">
-        <v>0.6281054615974426</v>
+        <v>81845.30674600296</v>
       </c>
     </row>
     <row r="1313">
       <c r="A1313" t="n">
-        <v>0.565796434879303</v>
+        <v>80651.4711417333</v>
       </c>
     </row>
     <row r="1314">
       <c r="A1314" t="n">
-        <v>0.2315491139888763</v>
+        <v>74247.32116012932</v>
       </c>
     </row>
     <row r="1315">
       <c r="A1315" t="n">
-        <v>-0.03425581008195877</v>
+        <v>69154.5216275445</v>
       </c>
     </row>
     <row r="1316">
       <c r="A1316" t="n">
-        <v>0.03824271634221077</v>
+        <v>70543.58717167153</v>
       </c>
     </row>
     <row r="1317">
       <c r="A1317" t="n">
-        <v>0.01085961051285267</v>
+        <v>70018.92921412627</v>
       </c>
     </row>
     <row r="1318">
       <c r="A1318" t="n">
-        <v>0.03702877461910248</v>
+        <v>70520.32815244289</v>
       </c>
     </row>
     <row r="1319">
       <c r="A1319" t="n">
-        <v>-0.4462278783321381</v>
+        <v>61261.17215722625</v>
       </c>
     </row>
     <row r="1320">
       <c r="A1320" t="n">
-        <v>-0.8566659092903137</v>
+        <v>53397.21470976458</v>
       </c>
     </row>
     <row r="1321">
       <c r="A1321" t="n">
-        <v>-0.6573734879493713</v>
+        <v>57215.64039845636</v>
       </c>
     </row>
     <row r="1322">
       <c r="A1322" t="n">
-        <v>-0.5355784296989441</v>
+        <v>59549.2232615173</v>
       </c>
     </row>
     <row r="1323">
       <c r="A1323" t="n">
-        <v>-0.5195260643959045</v>
+        <v>59856.78520303504</v>
       </c>
     </row>
     <row r="1324">
       <c r="A1324" t="n">
-        <v>-0.910357654094696</v>
+        <v>52368.48548738737</v>
       </c>
     </row>
     <row r="1325">
       <c r="A1325" t="n">
-        <v>-1.284567952156067</v>
+        <v>45198.64829299629</v>
       </c>
     </row>
     <row r="1326">
       <c r="A1326" t="n">
-        <v>-0.9207046031951904</v>
+        <v>52170.2388306451</v>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
-        <v>-0.3730486929416656</v>
+        <v>62663.27906873032</v>
       </c>
     </row>
     <row r="1328">
       <c r="A1328" t="n">
-        <v>-0.08392743766307831</v>
+        <v>68202.81750613989</v>
       </c>
     </row>
     <row r="1329">
       <c r="A1329" t="n">
-        <v>-0.2313095331192017</v>
+        <v>65378.98920621612</v>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="n">
-        <v>-0.4508607685565948</v>
+        <v>61172.40637814179</v>
       </c>
     </row>
     <row r="1331">
       <c r="A1331" t="n">
-        <v>-0.03924727439880371</v>
+        <v>69058.88559962438</v>
       </c>
     </row>
     <row r="1332">
       <c r="A1332" t="n">
-        <v>0.7036682963371277</v>
+        <v>83293.0841744621</v>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
-        <v>1.202153205871582</v>
+        <v>92844.01225885346</v>
       </c>
     </row>
     <row r="1334">
       <c r="A1334" t="n">
-        <v>1.135309815406799</v>
+        <v>91563.29863435827</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="n">
-        <v>0.7622174620628357</v>
+        <v>84414.8811648055</v>
       </c>
     </row>
     <row r="1336">
       <c r="A1336" t="n">
-        <v>0.6786826252937317</v>
+        <v>82814.36086165691</v>
       </c>
     </row>
     <row r="1337">
       <c r="A1337" t="n">
-        <v>0.7540626525878906</v>
+        <v>84258.63571514915</v>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="n">
-        <v>0.4343960285186768</v>
+        <v>78133.85063325652</v>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="n">
-        <v>0.0419926792383194</v>
+        <v>70615.43613892175</v>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="n">
-        <v>0.1305123120546341</v>
+        <v>72311.46470651656</v>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="n">
-        <v>0.08212500810623169</v>
+        <v>71384.36811568819</v>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="n">
-        <v>0.004380689468234777</v>
+        <v>69894.79364296247</v>
       </c>
     </row>
     <row r="1343">
       <c r="A1343" t="n">
-        <v>-0.624426543712616</v>
+        <v>57846.90102237291</v>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="n">
-        <v>-0.9101025462150574</v>
+        <v>52373.37333246671</v>
       </c>
     </row>
     <row r="1345">
       <c r="A1345" t="n">
-        <v>-0.434814453125</v>
+        <v>61479.85240464188</v>
       </c>
     </row>
     <row r="1346">
       <c r="A1346" t="n">
-        <v>-0.4295128881931305</v>
+        <v>61581.42993373159</v>
       </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
-        <v>-0.447660356760025</v>
+        <v>61233.72599348988</v>
       </c>
     </row>
     <row r="1348">
       <c r="A1348" t="n">
-        <v>-0.9239829778671265</v>
+        <v>52107.42545329613</v>
       </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
-        <v>-1.135411739349365</v>
+        <v>48056.46852909416</v>
       </c>
     </row>
     <row r="1350">
       <c r="A1350" t="n">
-        <v>-0.5316961407661438</v>
+        <v>59623.6075842737</v>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
-        <v>-0.1157757788896561</v>
+        <v>67592.60602161114</v>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
-        <v>-0.09037576615810394</v>
+        <v>68079.26808560068</v>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="n">
-        <v>-0.5431251525878906</v>
+        <v>59404.62869865987</v>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="n">
-        <v>-0.8906317353248596</v>
+        <v>52746.43239804753</v>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="n">
-        <v>-0.4434694647789001</v>
+        <v>61314.02312416643</v>
       </c>
     </row>
     <row r="1356">
       <c r="A1356" t="n">
-        <v>0.1979328244924545</v>
+        <v>73603.23593848388</v>
       </c>
     </row>
     <row r="1357">
       <c r="A1357" t="n">
-        <v>0.2958798110485077</v>
+        <v>75479.89179463281</v>
       </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
-        <v>0.05922980979084969</v>
+        <v>70945.69808093767</v>
       </c>
     </row>
     <row r="1359">
       <c r="A1359" t="n">
-        <v>-0.3224482536315918</v>
+        <v>63632.77914314676</v>
       </c>
     </row>
     <row r="1360">
       <c r="A1360" t="n">
-        <v>-0.4806998074054718</v>
+        <v>60600.69295472213</v>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="n">
-        <v>-0.07506819069385529</v>
+        <v>68372.5599177285</v>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="n">
-        <v>0.01417975686490536</v>
+        <v>70082.54293328123</v>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="n">
-        <v>0.1246864050626755</v>
+        <v>72199.84082855702</v>
       </c>
     </row>
     <row r="1364">
       <c r="A1364" t="n">
-        <v>-0.5112121105194092</v>
+        <v>60016.07984576658</v>
       </c>
     </row>
     <row r="1365">
       <c r="A1365" t="n">
-        <v>-0.4682638645172119</v>
+        <v>60838.96455315085</v>
       </c>
     </row>
     <row r="1366">
       <c r="A1366" t="n">
-        <v>0.04688067734241486</v>
+        <v>70709.08976308553</v>
       </c>
     </row>
     <row r="1367">
       <c r="A1367" t="n">
-        <v>0.1130443960428238</v>
+        <v>71976.7809349079</v>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="n">
-        <v>-0.1873231530189514</v>
+        <v>66221.76447382159</v>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="n">
-        <v>-0.8501582741737366</v>
+        <v>53521.90044008274</v>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="n">
-        <v>-0.7561438679695129</v>
+        <v>55323.20839420293</v>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="n">
-        <v>-0.3065213859081268</v>
+        <v>63937.93656181063</v>
       </c>
     </row>
     <row r="1372">
       <c r="A1372" t="n">
-        <v>-0.3360790908336639</v>
+        <v>63371.61347221678</v>
       </c>
     </row>
     <row r="1373">
       <c r="A1373" t="n">
-        <v>-0.3100027441978455</v>
+        <v>63871.23403576595</v>
       </c>
     </row>
     <row r="1374">
       <c r="A1374" t="n">
-        <v>-1.01896595954895</v>
+        <v>50287.55967615277</v>
       </c>
     </row>
     <row r="1375">
       <c r="A1375" t="n">
-        <v>-0.8676418662071228</v>
+        <v>53186.91631724608</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="n">
-        <v>0.124922938644886</v>
+        <v>72204.37279169176</v>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="n">
-        <v>0.115056037902832</v>
+        <v>72015.32382029723</v>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="n">
-        <v>0.02584575302898884</v>
+        <v>70306.06241855513</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="n">
-        <v>-0.811238706111908</v>
+        <v>54267.59602388939</v>
       </c>
     </row>
     <row r="1380">
       <c r="A1380" t="n">
-        <v>-0.8118882775306702</v>
+        <v>54255.15029125514</v>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
-        <v>-0.07308831065893173</v>
+        <v>68410.49424927514</v>
       </c>
     </row>
     <row r="1382">
       <c r="A1382" t="n">
-        <v>0.09943217784166336</v>
+        <v>71715.97200243743</v>
       </c>
     </row>
     <row r="1383">
       <c r="A1383" t="n">
-        <v>0.1516720056533813</v>
+        <v>72716.88261984543</v>
       </c>
     </row>
     <row r="1384">
       <c r="A1384" t="n">
-        <v>-0.5873755812644958</v>
+        <v>58556.79428299331</v>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="n">
-        <v>-0.6881340146064758</v>
+        <v>56626.27134771742</v>
       </c>
     </row>
     <row r="1386">
       <c r="A1386" t="n">
-        <v>-0.2889068126678467</v>
+        <v>64275.43027332996</v>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="n">
-        <v>0.08550406992435455</v>
+        <v>71449.11065011667</v>
       </c>
     </row>
     <row r="1388">
       <c r="A1388" t="n">
-        <v>-0.0363575704395771</v>
+        <v>69114.25207947537</v>
       </c>
     </row>
     <row r="1389">
       <c r="A1389" t="n">
-        <v>-0.2344480454921722</v>
+        <v>65318.8555785117</v>
       </c>
     </row>
     <row r="1390">
       <c r="A1390" t="n">
-        <v>-0.5482041835784912</v>
+        <v>59307.31490078598</v>
       </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
-        <v>-0.3109347224235535</v>
+        <v>63853.37741294808</v>
       </c>
     </row>
     <row r="1392">
       <c r="A1392" t="n">
-        <v>-0.1632853150367737</v>
+        <v>66682.32738652128</v>
       </c>
     </row>
     <row r="1393">
       <c r="A1393" t="n">
-        <v>-0.3092434406280518</v>
+        <v>63885.78222699624</v>
       </c>
     </row>
     <row r="1394">
       <c r="A1394" t="n">
-        <v>-0.4607579410076141</v>
+        <v>60982.77740340155</v>
       </c>
     </row>
     <row r="1395">
       <c r="A1395" t="n">
-        <v>-0.9572001099586487</v>
+        <v>51470.98805327104</v>
       </c>
     </row>
     <row r="1396">
       <c r="A1396" t="n">
-        <v>-0.7121244668960571</v>
+        <v>56166.61634082101</v>
       </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
-        <v>-0.2970628440380096</v>
+        <v>64119.16141226611</v>
       </c>
     </row>
     <row r="1398">
       <c r="A1398" t="n">
-        <v>-0.307200014591217</v>
+        <v>63924.93409448569</v>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
-        <v>-0.3135122954845428</v>
+        <v>63803.99133431881</v>
       </c>
     </row>
     <row r="1400">
       <c r="A1400" t="n">
-        <v>-0.8071633577346802</v>
+        <v>54345.67934903176</v>
       </c>
     </row>
     <row r="1401">
       <c r="A1401" t="n">
-        <v>0.2162982523441315</v>
+        <v>73955.11595991574</v>
       </c>
     </row>
     <row r="1402">
       <c r="A1402" t="n">
-        <v>0.9227206707000732</v>
+        <v>87490.10886716458</v>
       </c>
     </row>
     <row r="1403">
       <c r="A1403" t="n">
-        <v>1.330288887023926</v>
+        <v>95299.08091253343</v>
       </c>
     </row>
     <row r="1404">
       <c r="A1404" t="n">
-        <v>0.7283400893211365</v>
+        <v>83765.79361058792</v>
       </c>
     </row>
     <row r="1405">
       <c r="A1405" t="n">
-        <v>0.7933488488197327</v>
+        <v>85011.35586322752</v>
       </c>
     </row>
     <row r="1406">
       <c r="A1406" t="n">
-        <v>1.555565357208252</v>
+        <v>99615.35874699277</v>
       </c>
     </row>
     <row r="1407">
       <c r="A1407" t="n">
-        <v>1.552980184555054</v>
+        <v>99565.827060829</v>
       </c>
     </row>
     <row r="1408">
       <c r="A1408" t="n">
-        <v>1.367660403251648</v>
+        <v>96015.1159560596</v>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
-        <v>0.8897056579589844</v>
+        <v>86857.54405654696</v>
       </c>
     </row>
     <row r="1410">
       <c r="A1410" t="n">
-        <v>0.5547277331352234</v>
+        <v>80439.3957662841</v>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="n">
-        <v>0.1505649834871292</v>
+        <v>72695.67217014983</v>
       </c>
     </row>
     <row r="1412">
       <c r="A1412" t="n">
-        <v>0.1780845075845718</v>
+        <v>73222.94389000353</v>
       </c>
     </row>
     <row r="1413">
       <c r="A1413" t="n">
-        <v>0.5430444478988647</v>
+        <v>80215.54502386924</v>
       </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
-        <v>0.4144172072410583</v>
+        <v>77751.05813225252</v>
       </c>
     </row>
     <row r="1415">
       <c r="A1415" t="n">
-        <v>-0.03300812840461731</v>
+        <v>69178.42710140054</v>
       </c>
     </row>
     <row r="1416">
       <c r="A1416" t="n">
-        <v>-0.6053206920623779</v>
+        <v>58212.96750023859</v>
       </c>
     </row>
     <row r="1417">
       <c r="A1417" t="n">
-        <v>-0.3144029080867767</v>
+        <v>63786.92727329652</v>
       </c>
     </row>
     <row r="1418">
       <c r="A1418" t="n">
-        <v>-0.07758468389511108</v>
+        <v>68324.34412396957</v>
       </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
-        <v>-0.06931526958942413</v>
+        <v>68482.78539234701</v>
       </c>
     </row>
     <row r="1420">
       <c r="A1420" t="n">
-        <v>-0.05234847962856293</v>
+        <v>68807.86763182844</v>
       </c>
     </row>
     <row r="1421">
       <c r="A1421" t="n">
-        <v>-0.05432537198066711</v>
+        <v>68769.9905440282</v>
       </c>
     </row>
     <row r="1422">
       <c r="A1422" t="n">
-        <v>-0.01028008572757244</v>
+        <v>69613.89444846658</v>
       </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
-        <v>0.08029836416244507</v>
+        <v>71349.36977449631</v>
       </c>
     </row>
     <row r="1424">
       <c r="A1424" t="n">
-        <v>0.8050369620323181</v>
+        <v>85235.29910925253</v>
       </c>
     </row>
     <row r="1425">
       <c r="A1425" t="n">
-        <v>0.873735249042511</v>
+        <v>86551.55239236195</v>
       </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
-        <v>0.452181488275528</v>
+        <v>78474.61851576707</v>
       </c>
     </row>
     <row r="1427">
       <c r="A1427" t="n">
-        <v>0.4193011224269867</v>
+        <v>77844.63352805463</v>
       </c>
     </row>
     <row r="1428">
       <c r="A1428" t="n">
-        <v>0.8729186654090881</v>
+        <v>86535.90672002858</v>
       </c>
     </row>
     <row r="1429">
       <c r="A1429" t="n">
-        <v>1.160144925117493</v>
+        <v>92039.13720495076</v>
       </c>
     </row>
     <row r="1430">
       <c r="A1430" t="n">
-        <v>1.258326292037964</v>
+        <v>93920.28376876634</v>
       </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
-        <v>1.234611392021179</v>
+        <v>93465.90831976754</v>
       </c>
     </row>
     <row r="1432">
       <c r="A1432" t="n">
-        <v>1.630812406539917</v>
+        <v>101057.0857541364</v>
       </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
-        <v>1.519549608230591</v>
+        <v>98925.30008761954</v>
       </c>
     </row>
     <row r="1434">
       <c r="A1434" t="n">
-        <v>1.20461905002594</v>
+        <v>92891.25762122076</v>
       </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
-        <v>0.8713180422782898</v>
+        <v>86505.23891821539</v>
       </c>
     </row>
     <row r="1436">
       <c r="A1436" t="n">
-        <v>0.4866433441638947</v>
+        <v>79134.90471691174</v>
       </c>
     </row>
     <row r="1437">
       <c r="A1437" t="n">
-        <v>0.7026979327201843</v>
+        <v>83274.49209084258</v>
       </c>
     </row>
     <row r="1438">
       <c r="A1438" t="n">
-        <v>0.6355085968971252</v>
+        <v>81987.15018297345</v>
       </c>
     </row>
     <row r="1439">
       <c r="A1439" t="n">
-        <v>0.4432001411914825</v>
+        <v>78302.53667645765</v>
       </c>
     </row>
     <row r="1440">
       <c r="A1440" t="n">
-        <v>-0.3025517165660858</v>
+        <v>64013.99508570869</v>
       </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
-        <v>-0.5935201048851013</v>
+        <v>58439.06573777404</v>
       </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
-        <v>-0.1224176436662674</v>
+        <v>67465.34846252693</v>
       </c>
     </row>
     <row r="1443">
       <c r="A1443" t="n">
-        <v>-0.0799390971660614</v>
+        <v>68279.23376776485</v>
       </c>
     </row>
     <row r="1444">
       <c r="A1444" t="n">
-        <v>-0.0439944863319397</v>
+        <v>68967.92942641326</v>
       </c>
     </row>
     <row r="1445">
       <c r="A1445" t="n">
-        <v>-0.5057588219642639</v>
+        <v>60120.56438645662</v>
       </c>
     </row>
     <row r="1446">
       <c r="A1446" t="n">
-        <v>-0.8406716585159302</v>
+        <v>53703.66318190092</v>
       </c>
     </row>
     <row r="1447">
       <c r="A1447" t="n">
-        <v>-0.08850336074829102</v>
+        <v>68115.14321255418</v>
       </c>
     </row>
     <row r="1448">
       <c r="A1448" t="n">
-        <v>0.7781248092651367</v>
+        <v>84719.66457195921</v>
       </c>
     </row>
     <row r="1449">
       <c r="A1449" t="n">
-        <v>0.6828926801681519</v>
+        <v>82895.02515172435</v>
       </c>
     </row>
     <row r="1450">
       <c r="A1450" t="n">
-        <v>0.7377217411994934</v>
+        <v>83945.54525540033</v>
       </c>
     </row>
     <row r="1451">
       <c r="A1451" t="n">
-        <v>0.7127880454063416</v>
+        <v>83467.81778392904</v>
       </c>
     </row>
     <row r="1452">
       <c r="A1452" t="n">
-        <v>1.292944073677063</v>
+        <v>94583.55749391277</v>
       </c>
     </row>
     <row r="1453">
       <c r="A1453" t="n">
-        <v>2.072892189025879</v>
+        <v>109527.2964452285</v>
       </c>
     </row>
     <row r="1454">
       <c r="A1454" t="n">
-        <v>2.286224603652954</v>
+        <v>113614.7272003052</v>
       </c>
     </row>
     <row r="1455">
       <c r="A1455" t="n">
-        <v>1.875494956970215</v>
+        <v>105745.1824205887</v>
       </c>
     </row>
     <row r="1456">
       <c r="A1456" t="n">
-        <v>1.347182393074036</v>
+        <v>95622.75903857444</v>
       </c>
     </row>
     <row r="1457">
       <c r="A1457" t="n">
-        <v>1.025959849357605</v>
+        <v>89468.16266977736</v>
       </c>
     </row>
     <row r="1458">
       <c r="A1458" t="n">
-        <v>0.6228960752487183</v>
+        <v>81745.49535065512</v>
       </c>
     </row>
     <row r="1459">
       <c r="A1459" t="n">
-        <v>0.9402212500572205</v>
+        <v>87825.41846566657</v>
       </c>
     </row>
     <row r="1460">
       <c r="A1460" t="n">
-        <v>0.724541962146759</v>
+        <v>83693.02181989975</v>
       </c>
     </row>
     <row r="1461">
       <c r="A1461" t="n">
-        <v>0.7358375191688538</v>
+        <v>83909.44372300596</v>
       </c>
     </row>
     <row r="1462">
       <c r="A1462" t="n">
-        <v>0.03176258504390717</v>
+        <v>70419.42841215098</v>
       </c>
     </row>
     <row r="1463">
       <c r="A1463" t="n">
-        <v>-0.2627189457416534</v>
+        <v>64777.18755607153</v>
       </c>
     </row>
     <row r="1464">
       <c r="A1464" t="n">
-        <v>-0.02908307127654552</v>
+        <v>69253.63085910777</v>
       </c>
     </row>
     <row r="1465">
       <c r="A1465" t="n">
-        <v>-0.07311069965362549</v>
+        <v>68410.06527805835</v>
       </c>
     </row>
   </sheetData>
